--- a/doc/Es搜索api接口_v1.xlsx
+++ b/doc/Es搜索api接口_v1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
   <si>
     <t>服务地址</t>
   </si>
@@ -704,6 +704,70 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>http://192.168.100.12:8999/es/delete/keywords</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/delete/keywords</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>false代表删除失败，true代表删除成功</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>curl -vg -H 'Content-Type: application/json' -H 'Accept: application/json' -X POST -d '{"keywords":["</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机动车贸易</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"]}' http://192.168.100.12:8999/es/index/keywords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+{"costMillisecond":2.0,"costSecond":0.002,"data":true,"msg":"sucsess","code":0}
+</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -713,7 +777,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>根据</t>
     </r>
     <r>
       <rPr>
@@ -723,7 +787,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>.</t>
+      <t>keywords</t>
     </r>
     <r>
       <rPr>
@@ -734,18 +798,105 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>根据</t>
+      <t>精确删除索引</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/index/rws</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.12:8999/es/index/rws</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array[Object(keyword,rvkw)]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词及相关词对</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>List[(String,String)]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>curl -vg -H 'Content-Type: application/json' -H 'Accept: application/json' -X POST -d '[{"keyword":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺网科技</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","rvkw":null},{"keyword":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金融科技</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","rvkw":"fintech"}]' http://192.168.100.12:8999/es/index/rws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <color indexed="8"/>
-        <rFont val="Cambria"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>keywords</t>
-    </r>
+      <t xml:space="preserve">
+{"costMillisecond":2.0,"costSecond":0.002,"data":false,"msg":"sucsess","code":0}
+</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -755,68 +906,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>精确删除索引</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.100.12:8999/es/delete/keywords</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://54.222.222.172:8999/es/delete/keywords</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>false代表删除失败，true代表删除成功</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10.5"/>
-        <color theme="8"/>
-        <rFont val="Times New Roman"/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>curl -vg -H 'Content-Type: application/json' -H 'Accept: application/json' -X POST -d '{"keywords":["</t>
+      <t>.</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10.5"/>
-        <color theme="8"/>
+        <sz val="16"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>机动车贸易</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"]}' http://192.168.100.12:8999/es/index/keywords</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-{"costMillisecond":2.0,"costSecond":0.002,"data":true,"msg":"sucsess","code":0}
-</t>
+      <t>增量索引with相关词集</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1296,7 +1407,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1336,6 +1447,78 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1345,60 +1528,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,47 +1564,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2747,10 +2864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F80"/>
+  <dimension ref="B2:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:F80"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2763,113 +2880,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -2887,13 +3004,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -2909,20 +3026,20 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="2:6" ht="14.25" thickBot="1">
       <c r="B18" s="1" t="s">
@@ -2996,150 +3113,150 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
     </row>
     <row r="30" spans="2:6" ht="21" thickBot="1">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="2:6" ht="13.5" thickBot="1">
       <c r="B31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" thickBot="1">
       <c r="B32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" thickBot="1">
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
     </row>
     <row r="36" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
     </row>
     <row r="38" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
     </row>
     <row r="39" spans="2:6" ht="13.5" thickBot="1">
       <c r="B39" s="2" t="s">
@@ -3157,13 +3274,13 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="2:6" ht="14.25" thickBot="1">
       <c r="B41" s="1" t="s">
@@ -3181,20 +3298,20 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="2:6" ht="14.25" thickBot="1">
       <c r="B44" s="1" t="s">
@@ -3266,142 +3383,142 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="40"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="40"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="25"/>
     </row>
     <row r="54" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B54" s="43"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45"/>
-    </row>
-    <row r="55" spans="2:6" s="50" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="2:6" s="29" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="56" spans="2:6" ht="21" thickBot="1">
-      <c r="B56" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
+      <c r="B56" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" spans="2:6" ht="13.5" thickBot="1">
       <c r="B57" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15"/>
+      <c r="C57" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" spans="2:6" ht="13.5" thickBot="1">
       <c r="B58" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
+      <c r="C58" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="39"/>
     </row>
     <row r="59" spans="2:6" ht="13.5" thickBot="1">
       <c r="B59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="32"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42"/>
     </row>
     <row r="60" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B60" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="22"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
     </row>
     <row r="61" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="32"/>
     </row>
     <row r="62" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B62" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
     </row>
     <row r="63" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B63" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="18"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="35"/>
     </row>
     <row r="64" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="18"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="35"/>
     </row>
     <row r="65" spans="2:6" ht="13.5" thickBot="1">
       <c r="B65" s="7" t="s">
@@ -3419,23 +3536,23 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B66" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="28"/>
-    </row>
-    <row r="67" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B66" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="19"/>
+    </row>
+    <row r="67" spans="2:6" ht="27.75" thickBot="1">
       <c r="B67" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>18</v>
@@ -3443,170 +3560,421 @@
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B68" s="46"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="48"/>
-    </row>
-    <row r="69" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B69" s="26" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
     </row>
     <row r="71" spans="2:6" ht="14.25" thickBot="1">
       <c r="B71" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
       <c r="B72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D73" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B73" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="11"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="14.25" thickBot="1">
       <c r="B74" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B75" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B75" s="26" t="s">
+      <c r="E75" s="11"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B76" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="28"/>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="37" t="s">
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="25"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="25"/>
+    </row>
+    <row r="81" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B81" s="26"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="28"/>
+    </row>
+    <row r="82" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
+    <row r="83" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="84" spans="2:6" ht="21" thickBot="1">
+      <c r="B84" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="39"/>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="40"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="42"/>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="40"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="42"/>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="40"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="42"/>
-    </row>
-    <row r="80" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="45"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+    </row>
+    <row r="85" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B85" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="39"/>
+    </row>
+    <row r="86" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B86" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="39"/>
+    </row>
+    <row r="87" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B87" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="42"/>
+    </row>
+    <row r="88" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B88" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="45"/>
+    </row>
+    <row r="89" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B89" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="32"/>
+    </row>
+    <row r="90" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B90" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="35"/>
+    </row>
+    <row r="91" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B91" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="35"/>
+    </row>
+    <row r="92" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B92" s="33"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="35"/>
+    </row>
+    <row r="93" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B93" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B94" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="16"/>
+    </row>
+    <row r="97" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B97" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B101" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="11"/>
+      <c r="F101" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B102" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B103" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="19"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="22"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="23"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="25"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="23"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="25"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="23"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="25"/>
+    </row>
+    <row r="108" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B108" s="26"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F80"/>
-    <mergeCell ref="A55:XFD55"/>
-    <mergeCell ref="C61:F61"/>
+  <mergeCells count="60">
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F81"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B69:F69"/>
     <mergeCell ref="C57:F57"/>
     <mergeCell ref="C58:F58"/>
     <mergeCell ref="C59:F59"/>
     <mergeCell ref="C60:F60"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B50:F54"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B24:F28"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C61:F61"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="C35:F35"/>
@@ -3621,6 +3989,39 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B50:F54"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B24:F28"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F108"/>
+    <mergeCell ref="A55:XFD55"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="B56:F56"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -3628,11 +4029,13 @@
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
     <hyperlink ref="C31" r:id="rId4"/>
-    <hyperlink ref="C58" r:id="rId5"/>
-    <hyperlink ref="C57" r:id="rId6"/>
+    <hyperlink ref="C86" r:id="rId5"/>
+    <hyperlink ref="C85" r:id="rId6"/>
+    <hyperlink ref="C58" r:id="rId7"/>
+    <hyperlink ref="C57" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/doc/Es搜索api接口_v1.xlsx
+++ b/doc/Es搜索api接口_v1.xlsx
@@ -1450,6 +1450,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1459,113 +1507,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2866,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:F56"/>
+    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2880,13 +2880,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
       <c r="B3" s="48" t="s">
@@ -2898,95 +2898,95 @@
       <c r="F3" s="48"/>
     </row>
     <row r="4" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -3004,13 +3004,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -3026,20 +3026,20 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" ht="14.25" thickBot="1">
       <c r="B18" s="1" t="s">
@@ -3113,50 +3113,50 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
       <c r="B29" s="48" t="s">
@@ -3168,95 +3168,95 @@
       <c r="F29" s="48"/>
     </row>
     <row r="30" spans="2:6" ht="21" thickBot="1">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
     </row>
     <row r="31" spans="2:6" ht="13.5" thickBot="1">
       <c r="B31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" thickBot="1">
       <c r="B32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" thickBot="1">
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
     </row>
     <row r="34" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
     </row>
     <row r="36" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" ht="13.5" thickBot="1">
       <c r="B39" s="2" t="s">
@@ -3274,13 +3274,13 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="2:6" ht="14.25" thickBot="1">
       <c r="B41" s="1" t="s">
@@ -3298,20 +3298,20 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
     </row>
     <row r="43" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="2:6" ht="14.25" thickBot="1">
       <c r="B44" s="1" t="s">
@@ -3383,142 +3383,142 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="25"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
-    </row>
-    <row r="55" spans="2:6" s="29" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="2:6" s="52" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="56" spans="2:6" ht="21" thickBot="1">
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
     </row>
     <row r="57" spans="2:6" ht="13.5" thickBot="1">
       <c r="B57" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="39"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
     </row>
     <row r="58" spans="2:6" ht="13.5" thickBot="1">
       <c r="B58" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="39"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
     </row>
     <row r="59" spans="2:6" ht="13.5" thickBot="1">
       <c r="B59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="42"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="38"/>
     </row>
     <row r="60" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B60" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="45"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="32"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44"/>
     </row>
     <row r="62" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B62" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="35"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="63" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B63" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="35"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="29"/>
     </row>
     <row r="64" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B64" s="33"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="35"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="2:6" ht="13.5" thickBot="1">
       <c r="B65" s="7" t="s">
@@ -3536,13 +3536,13 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="19"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
     </row>
     <row r="67" spans="2:6" ht="27.75" thickBot="1">
       <c r="B67" s="1" t="s">
@@ -3563,24 +3563,24 @@
       <c r="B68" s="10"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="52"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="16"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="32"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
     </row>
     <row r="71" spans="2:6" ht="14.25" thickBot="1">
       <c r="B71" s="1" t="s">
@@ -3652,143 +3652,143 @@
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="19"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="17"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="22"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="23"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="25"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="23"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="25"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="23"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="25"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="23"/>
     </row>
     <row r="81" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B81" s="26"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="28"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="26"/>
     </row>
     <row r="82" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
     <row r="83" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="84" spans="2:6" ht="21" thickBot="1">
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
     </row>
     <row r="85" spans="2:6" ht="13.5" thickBot="1">
       <c r="B85" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="39"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="35"/>
     </row>
     <row r="86" spans="2:6" ht="13.5" thickBot="1">
       <c r="B86" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="39"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="35"/>
     </row>
     <row r="87" spans="2:6" ht="13.5" thickBot="1">
       <c r="B87" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="40" t="s">
+      <c r="C87" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="42"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="38"/>
     </row>
     <row r="88" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B88" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C88" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="45"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="41"/>
     </row>
     <row r="89" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B89" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="32"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="44"/>
     </row>
     <row r="90" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B90" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="35"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B91" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="35"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B92" s="33"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="35"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="29"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" thickBot="1">
       <c r="B93" s="7" t="s">
@@ -3806,13 +3806,13 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="19"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="17"/>
     </row>
     <row r="95" spans="2:6" ht="14.25" thickBot="1">
       <c r="B95" s="1" t="s">
@@ -3830,20 +3830,20 @@
       <c r="F95" s="9"/>
     </row>
     <row r="96" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="16"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="32"/>
     </row>
     <row r="97" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="19"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="17"/>
     </row>
     <row r="98" spans="2:6" ht="14.25" thickBot="1">
       <c r="B98" s="1" t="s">
@@ -3915,97 +3915,53 @@
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="19"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="17"/>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="20" t="s">
+      <c r="B104" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="22"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="20"/>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="23"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="25"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="23"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="23"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="25"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="23"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="23"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="25"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="23"/>
     </row>
     <row r="108" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B108" s="26"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="28"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F81"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B50:F54"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B24:F28"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="B40:F40"/>
     <mergeCell ref="B96:F96"/>
     <mergeCell ref="B97:F97"/>
     <mergeCell ref="B103:F103"/>
@@ -4022,6 +3978,50 @@
     <mergeCell ref="C87:F87"/>
     <mergeCell ref="C88:F88"/>
     <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B50:F54"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B24:F28"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F81"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B69:F69"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/doc/Es搜索api接口_v1.xlsx
+++ b/doc/Es搜索api接口_v1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
   <si>
     <t>服务地址</t>
   </si>
@@ -807,10 +807,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.100.12:8999/es/index/rws</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>请求参数</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -820,80 +816,6 @@
   </si>
   <si>
     <t>关键词及相关词对</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>List[(String,String)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>curl -vg -H 'Content-Type: application/json' -H 'Accept: application/json' -X POST -d '[{"keyword":"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>顺网科技</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>","rvkw":null},{"keyword":"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金融科技</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>","rvkw":"fintech"}]' http://192.168.100.12:8999/es/index/rws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-{"costMillisecond":2.0,"costSecond":0.002,"data":false,"msg":"sucsess","code":0}
-</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -929,6 +851,129 @@
       </rPr>
       <t>增量索引with相关词集</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>List[(String,List&lt;String&gt;)]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>curl -vg -H 'Content-Type: application/json' -H 'Accept: application/json' -X POST -d '[{"keyword":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺网科技</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","rvkw":null},{"keyword":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金融科技</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","rvkw":["fintech","</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金融科技概念板</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"]}]' http://192.168.100.12:8999/es/index/rws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+{"costMillisecond":2.0,"costSecond":0.002,"data":false,"msg":"sucsess","code":0}
+</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.12:8999/es/index/rws</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>needSearch</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要搜索过滤</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：1代表需要搜索过来，0代表直接查nlp接口</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1407,7 +1452,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1453,6 +1498,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1489,6 +1543,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1498,14 +1564,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1534,14 +1594,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1552,20 +1612,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2864,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F108"/>
+  <dimension ref="B2:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:F81"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2880,113 +2928,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -3004,13 +3052,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -3019,111 +3067,121 @@
       <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-    </row>
-    <row r="17" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B17" s="15" t="s">
+      <c r="B16" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+    </row>
+    <row r="18" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" ht="64.5" thickBot="1">
+    <row r="20" spans="2:6" ht="14.25" thickBot="1">
       <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" ht="64.5" thickBot="1">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="9" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="14.25" thickBot="1">
       <c r="B22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="4" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B23" s="15" t="s">
+    <row r="24" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B24" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="51" t="s">
-        <v>56</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -3131,269 +3189,269 @@
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="21"/>
+      <c r="B25" s="47" t="s">
+        <v>56</v>
+      </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B29" s="48" t="s">
+    <row r="29" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B30" s="49" t="s">
         <v>20</v>
-      </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-    </row>
-    <row r="30" spans="2:6" ht="21" thickBot="1">
-      <c r="B30" s="49" t="s">
-        <v>21</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
     </row>
-    <row r="31" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B31" s="12" t="s">
+    <row r="31" spans="2:6" ht="21" thickBot="1">
+      <c r="B31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C32" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-    </row>
-    <row r="32" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B32" s="5" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C33" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
-    </row>
-    <row r="33" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C34" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-    </row>
-    <row r="34" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C35" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
-    </row>
-    <row r="35" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+    </row>
+    <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-    </row>
-    <row r="36" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C38" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B39" s="2" t="s">
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B40" s="15" t="s">
+    <row r="41" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B41" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
-    </row>
-    <row r="43" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B43" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B43" s="15"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+    <row r="44" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B44" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
     </row>
     <row r="45" spans="2:6" ht="14.25" thickBot="1">
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6" ht="14.25" thickBot="1">
       <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="9" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B47" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B49" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B49" s="15" t="s">
+      <c r="E49" s="11"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B50" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -3401,268 +3459,268 @@
       <c r="F50" s="20"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="21"/>
+      <c r="B51" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="23"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
     </row>
-    <row r="55" spans="2:6" s="52" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="56" spans="2:6" ht="21" thickBot="1">
-      <c r="B56" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-    </row>
-    <row r="57" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B57" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
+    <row r="55" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="56" spans="2:6" s="30" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="57" spans="2:6" ht="21" thickBot="1">
+      <c r="B57" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
     </row>
     <row r="58" spans="2:6" ht="13.5" thickBot="1">
       <c r="B58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40"/>
+    </row>
+    <row r="59" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B59" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-    </row>
-    <row r="59" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B59" s="7" t="s">
+      <c r="C59" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40"/>
+    </row>
+    <row r="60" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C60" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="38"/>
-    </row>
-    <row r="60" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B60" s="7" t="s">
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
+    </row>
+    <row r="61" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B61" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C61" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="41"/>
-    </row>
-    <row r="61" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B61" s="7" t="s">
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
+    </row>
+    <row r="62" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B62" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="42"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="44"/>
-    </row>
-    <row r="62" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B62" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="29"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="33"/>
     </row>
     <row r="63" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="36"/>
+    </row>
+    <row r="64" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C64" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="29"/>
-    </row>
-    <row r="64" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
-    </row>
-    <row r="65" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B65" s="7" t="s">
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="36"/>
+    </row>
+    <row r="65" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B65" s="34"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="36"/>
+    </row>
+    <row r="66" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F66" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B66" s="15" t="s">
+    <row r="67" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B67" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="2:6" ht="27.75" thickBot="1">
+      <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="17"/>
-    </row>
-    <row r="67" spans="2:6" ht="27.75" thickBot="1">
-      <c r="B67" s="1" t="s">
+      <c r="C68" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B68" s="10"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="14"/>
       <c r="F68" s="9"/>
     </row>
     <row r="69" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="32"/>
-    </row>
-    <row r="70" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B70" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B70" s="15"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="17"/>
     </row>
-    <row r="71" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+    <row r="71" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B71" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="2:6" ht="14.25" thickBot="1">
       <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="9" t="s">
+      <c r="E74" s="4"/>
+      <c r="F74" s="9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B74" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
       <c r="B75" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B76" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D76" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B76" s="15" t="s">
+      <c r="E76" s="11"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B77" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="17"/>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
@@ -3670,262 +3728,262 @@
       <c r="F77" s="20"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="21"/>
+      <c r="B78" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="23"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
-    </row>
-    <row r="81" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="2:6">
       <c r="B81" s="24"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
       <c r="F81" s="26"/>
     </row>
-    <row r="82" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
-    <row r="83" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="84" spans="2:6" ht="21" thickBot="1">
-      <c r="B84" s="49" t="s">
+    <row r="82" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
+    <row r="84" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="85" spans="2:6" ht="21" thickBot="1">
+      <c r="B85" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-    </row>
-    <row r="85" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B85" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="35"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
     </row>
     <row r="86" spans="2:6" ht="13.5" thickBot="1">
       <c r="B86" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="40"/>
+    </row>
+    <row r="87" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B87" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="33" t="s">
+      <c r="C87" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="35"/>
-    </row>
-    <row r="87" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B87" s="7" t="s">
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="40"/>
+    </row>
+    <row r="88" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B88" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C88" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="38"/>
-    </row>
-    <row r="88" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B88" s="7" t="s">
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="43"/>
+    </row>
+    <row r="89" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B89" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C89" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="41"/>
-    </row>
-    <row r="89" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B89" s="7" t="s">
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="46"/>
+    </row>
+    <row r="90" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B90" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="42"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="44"/>
-    </row>
-    <row r="90" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B90" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="29"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="33"/>
     </row>
     <row r="91" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B91" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="36"/>
+    </row>
+    <row r="92" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B92" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C92" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="29"/>
-    </row>
-    <row r="92" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B92" s="27"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="29"/>
-    </row>
-    <row r="93" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B93" s="7" t="s">
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="36"/>
+    </row>
+    <row r="93" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B93" s="34"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="36"/>
+    </row>
+    <row r="94" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B94" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F94" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B94" s="15" t="s">
+    <row r="95" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B95" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="17"/>
-    </row>
-    <row r="95" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="20"/>
+    </row>
+    <row r="96" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B96" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C96" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D96" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B96" s="30"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="32"/>
-    </row>
-    <row r="97" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B97" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B97" s="15"/>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="17"/>
     </row>
-    <row r="98" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
+    <row r="98" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B98" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="20"/>
     </row>
     <row r="99" spans="2:6" ht="14.25" thickBot="1">
       <c r="B99" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="2:6" ht="14.25" thickBot="1">
       <c r="B100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B101" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C101" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D101" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="9" t="s">
+      <c r="E101" s="4"/>
+      <c r="F101" s="9" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B101" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E101" s="11"/>
-      <c r="F101" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="14.25" thickBot="1">
       <c r="B102" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B103" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D103" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B103" s="15" t="s">
+      <c r="E103" s="11"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B104" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="17"/>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
@@ -3933,106 +3991,115 @@
       <c r="F104" s="20"/>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="21"/>
+      <c r="B105" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="C105" s="22"/>
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="23"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="21"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="23"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="26"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="21"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="23"/>
-    </row>
-    <row r="108" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B107" s="24"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="26"/>
+    </row>
+    <row r="108" spans="2:6">
       <c r="B108" s="24"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
       <c r="E108" s="25"/>
       <c r="F108" s="26"/>
     </row>
+    <row r="109" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B109" s="27"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F108"/>
-    <mergeCell ref="A55:XFD55"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B50:F54"/>
-    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B78:F82"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B39:F39"/>
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B24:F28"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B29:F29"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F81"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B51:F55"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F109"/>
+    <mergeCell ref="A56:XFD56"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="B57:F57"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1"/>
+    <hyperlink ref="C33" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C31" r:id="rId4"/>
-    <hyperlink ref="C86" r:id="rId5"/>
-    <hyperlink ref="C85" r:id="rId6"/>
-    <hyperlink ref="C58" r:id="rId7"/>
-    <hyperlink ref="C57" r:id="rId8"/>
+    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C87" r:id="rId5"/>
+    <hyperlink ref="C86" r:id="rId6"/>
+    <hyperlink ref="C59" r:id="rId7"/>
+    <hyperlink ref="C58" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId9"/>

--- a/doc/Es搜索api接口_v1.xlsx
+++ b/doc/Es搜索api接口_v1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="142">
   <si>
     <t>服务地址</t>
   </si>
@@ -976,12 +976,709 @@
     <t>说明：1代表需要搜索过来，0代表直接查nlp接口</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据关键字进行查询</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/search/keywords</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境地址</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.12:8999/es/search/keywords</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类行</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数格式</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>costMillisecond</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求响应花费毫秒数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>costSecond</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求响应花费秒数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回结果集</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>no data</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误码</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为错误</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+curl -vg -H 'Content-Type: application/json' -H 'Accept: application/json' -X POST -d '{"keyword":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无人机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"}'  http://54.222.222.172:8999/es/search/keywords</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+    "costMillisecond":63,
+    "costSecond":0.063,
+    "data":{
+        "tik":[
+        ],
+        "results":[
+            {
+                "data":[
+                    {
+                        "graph":{
+                            "relationships":[
+                                {
+                                    "startNode":"35424",
+                                    "id":"93013",
+                                    "type":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                                    "endNode":"35970",
+                                    "properties":{
+                                    }
+                                }
+                            ],
+                            "nodes":[
+                                {
+                                    "id":"35424",
+                                    "properties":{
+                                        "def":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无人是利用无线电遥控设备和自备的程序控制装置操纵的不载人飞机。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                                        "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无人机概念板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                                        "event":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周一展望：重点布局十大板块优质股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+                                    },
+                                    "labels":[
+                                        "csf"
+                                    ]
+                                },
+                                {
+                                    "id":"35970",
+                                    "properties":{
+                                        "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>农用无人机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"
+                                    },
+                                    "labels":[
+                                        "pro"
+                                    ]
+                                }
+                            ]
+                        }
+                    }
+                ],
+                "columns":[
+                    "p"
+                ]
+            }
+        ],
+        "errors":[
+        ]
+    },
+    "msg":"sucsess",
+    "code":0
+}
+</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日志记录接口</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/search/record</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境服务地址</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.12:8999/search/record</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyWords</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>appKey</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientIp</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAgent</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourceType</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookies</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>curl -vg -H 'Content-Type: application/json' -H 'Accept: application/json' -X POST -d '{"keyWords":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无人机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>","appKey":"sd","clientIp":"0.0.0","userAgent":"sdf","sourceType":"haha","cookies":"sdjkl","userId":"userId"}' http://54.222.222.172/search/record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询所有索引接口</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始位置</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>条数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.12:8999/es/search/all</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/search/all</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>curl http://54.222.222.172:8999/es/search/all?from=0&amp;to=2
+{
+    "costMillisecond":1,
+    "costSecond":0.001,
+    "data":{
+        "from":0,
+        "to":2,
+        "total":1828,
+        "size":2,
+        "result":[
+            {
+                "score":1,
+                "updateDate":1470995624923,
+                "id":"1",
+                "keyword":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中科创达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+            },
+            {
+                "score":1,
+                "updateDate":1470995624926,
+                "id":"2",
+                "keyword":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星星科技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"
+            }
+        ]
+    },
+    "msg":"sucsess",
+    "code":0
+}</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>响应结果（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为列表内容）</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询总条数</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/search/count</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.12:8999/es/search/count</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl http://54.222.222.172:8999/es/search/count
+{"costMillisecond":3.0,"costSecond":0.003,"data":1828,"msg":"sucsess","code":0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预热缓存接口</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/search/warm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.100.12:8999/es/search/warm</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl http://54.222.222.172:8999/es/search/warm
+{"costMillisecond":524315.0,"costSecond":524.315,"data":"warm successfully,total keywords:1859","msg":"sucsess","code":0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1127,6 +1824,20 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1452,7 +2163,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1498,6 +2209,60 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1507,113 +2272,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2912,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F109"/>
+  <dimension ref="B2:F250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F29"/>
+    <sheetView tabSelected="1" topLeftCell="B156" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165:F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2928,113 +3657,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B4" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-    </row>
-    <row r="5" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="2:6" ht="21" thickBot="1">
+      <c r="B4" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
+      <c r="C5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
+        <v>83</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-    </row>
-    <row r="9" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C8" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+        <v>86</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -3062,44 +3791,34 @@
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="2:6" ht="13.5" thickBot="1">
       <c r="B18" s="18" t="s">
         <v>10</v>
       </c>
@@ -3110,76 +3829,76 @@
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" ht="14.25" thickBot="1">
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="2:6" ht="64.5" thickBot="1">
+    <row r="21" spans="2:6" ht="14.25" thickBot="1">
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="9" t="s">
-        <v>57</v>
+      <c r="F21" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="14.25" thickBot="1">
       <c r="B22" s="10" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="9" t="s">
-        <v>55</v>
+      <c r="F22" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="14.25" thickBot="1">
       <c r="B23" s="10" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="24" customHeight="1" thickBot="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="13.5" thickBot="1">
       <c r="B24" s="18" t="s">
         <v>11</v>
       </c>
@@ -3189,8 +3908,8 @@
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="47" t="s">
-        <v>56</v>
+      <c r="B25" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -3218,125 +3937,123 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="2:6" ht="90" customHeight="1" thickBot="1">
+    <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B30" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-    </row>
-    <row r="31" spans="2:6" ht="21" thickBot="1">
-      <c r="B31" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-    </row>
-    <row r="32" spans="2:6" ht="13.5" thickBot="1">
+    <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B31" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-    </row>
-    <row r="33" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="C32" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+    </row>
+    <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
+      <c r="B34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
+      <c r="C35" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="34" t="s">
+      <c r="B37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3350,136 +4067,124 @@
       <c r="F41" s="20"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="3"/>
+      <c r="B42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
+      <c r="B43" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B44" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="B45" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="B46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="B47" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="9" t="s">
-        <v>41</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B50" s="18" t="s">
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="50"/>
+    </row>
+    <row r="50" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+    </row>
+    <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B51" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+    </row>
+    <row r="52" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B52" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26"/>
+      <c r="B53" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="24"/>
@@ -3488,161 +4193,153 @@
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
     </row>
-    <row r="55" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="29"/>
-    </row>
-    <row r="56" spans="2:6" s="30" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="57" spans="2:6" ht="21" thickBot="1">
-      <c r="B57" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-    </row>
-    <row r="58" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B58" s="12" t="s">
+    <row r="55" spans="2:6">
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="2:6" ht="20.25" customHeight="1">
+      <c r="B58" s="57"/>
+    </row>
+    <row r="59" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B61" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="40"/>
-    </row>
-    <row r="59" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B59" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="40"/>
-    </row>
-    <row r="60" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B60" s="7" t="s">
+      <c r="C62" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="38"/>
+    </row>
+    <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B63" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="38"/>
+    </row>
+    <row r="64" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-    </row>
-    <row r="61" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B61" s="7" t="s">
+      <c r="C64" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="41"/>
+    </row>
+    <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C65" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="46"/>
-    </row>
-    <row r="62" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B62" s="7" t="s">
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="44"/>
+    </row>
+    <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B63" s="7" t="s">
+      <c r="C66" s="45"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="47"/>
+    </row>
+    <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C67" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="32"/>
+    </row>
+    <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B68" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="36"/>
-    </row>
-    <row r="64" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B64" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="36"/>
-    </row>
-    <row r="65" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B65" s="34"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="36"/>
-    </row>
-    <row r="66" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B66" s="7" t="s">
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="32"/>
+    </row>
+    <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="32"/>
+    </row>
+    <row r="70" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B70" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B67" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-    </row>
-    <row r="68" spans="2:6" ht="27.75" thickBot="1">
-      <c r="B68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B69" s="10"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B70" s="15"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="2:6" ht="13.5" thickBot="1">
+    <row r="71" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
       <c r="B71" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -3650,459 +4347,1961 @@
       <c r="F71" s="20"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B73" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B74" s="48"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="50"/>
+    </row>
+    <row r="75" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B75" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
+    </row>
+    <row r="76" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D76" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B73" s="1" t="s">
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B77" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D77" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B74" s="1" t="s">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="2:6" ht="64.5" thickBot="1">
+      <c r="B78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="10" t="s">
+      <c r="C78" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B79" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D79" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B76" s="10" t="s">
+      <c r="E79" s="11"/>
+      <c r="F79" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B80" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B77" s="18" t="s">
+      <c r="E80" s="11"/>
+      <c r="F80" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B81" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="20"/>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="26"/>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="26"/>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="26"/>
-    </row>
-    <row r="82" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B82" s="27"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="29"/>
-    </row>
-    <row r="83" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
-    <row r="84" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="85" spans="2:6" ht="21" thickBot="1">
-      <c r="B85" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-    </row>
-    <row r="86" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B86" s="12" t="s">
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="23"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="26"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="26"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="26"/>
+    </row>
+    <row r="86" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B86" s="27"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" spans="2:6" ht="20.25" customHeight="1">
+      <c r="B87" s="57"/>
+    </row>
+    <row r="88" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+    </row>
+    <row r="89" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+    </row>
+    <row r="90" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B90" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+    </row>
+    <row r="91" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B91" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="40"/>
-    </row>
-    <row r="87" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B87" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="40"/>
-    </row>
-    <row r="88" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B88" s="7" t="s">
+      <c r="C91" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="38"/>
+    </row>
+    <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B92" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="38"/>
+    </row>
+    <row r="93" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B93" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="43"/>
-    </row>
-    <row r="89" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B89" s="7" t="s">
+      <c r="C93" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="41"/>
+    </row>
+    <row r="94" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B94" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="44" t="s">
+      <c r="C94" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="46"/>
-    </row>
-    <row r="90" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B90" s="7" t="s">
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="44"/>
+    </row>
+    <row r="95" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B95" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="33"/>
-    </row>
-    <row r="91" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B91" s="7" t="s">
+      <c r="C95" s="45"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="47"/>
+    </row>
+    <row r="96" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B96" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C96" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="32"/>
+    </row>
+    <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B97" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="36"/>
-    </row>
-    <row r="92" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B92" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="36"/>
-    </row>
-    <row r="93" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B93" s="34"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="36"/>
-    </row>
-    <row r="94" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B94" s="7" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="32"/>
+    </row>
+    <row r="98" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="32"/>
+    </row>
+    <row r="99" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B99" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C99" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
+      <c r="D99" s="9"/>
+      <c r="E99" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F99" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B95" s="18" t="s">
+    <row r="100" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B100" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="20"/>
-    </row>
-    <row r="96" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B96" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B97" s="15"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="17"/>
-    </row>
-    <row r="98" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B98" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="20"/>
-    </row>
-    <row r="99" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B100" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="20"/>
     </row>
     <row r="101" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B101" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E101" s="4"/>
+      <c r="B101" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="F101" s="9" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B102" s="10" t="s">
-        <v>31</v>
+      <c r="B102" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E102" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="F102" s="9" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B103" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" s="11"/>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B103" s="48"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="50"/>
+    </row>
+    <row r="104" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B104" s="18" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="20"/>
     </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="21" t="s">
+    <row r="105" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B108" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B109" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109" s="11"/>
+      <c r="F109" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B110" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="20"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="23"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="24"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="26"/>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="24"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="26"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="24"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="26"/>
+    </row>
+    <row r="115" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B115" s="27"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="29"/>
+    </row>
+    <row r="116" spans="2:6" ht="20.25" customHeight="1">
+      <c r="B116" s="57"/>
+    </row>
+    <row r="117" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+    </row>
+    <row r="118" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+    </row>
+    <row r="119" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B119" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52"/>
+    </row>
+    <row r="120" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B120" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="38"/>
+    </row>
+    <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B121" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="38"/>
+    </row>
+    <row r="122" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B122" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="41"/>
+    </row>
+    <row r="123" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B123" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="44"/>
+    </row>
+    <row r="124" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B124" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="45"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="47"/>
+    </row>
+    <row r="125" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B125" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="32"/>
+    </row>
+    <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B126" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="32"/>
+    </row>
+    <row r="127" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B127" s="30"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="32"/>
+    </row>
+    <row r="128" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B128" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B129" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
+    </row>
+    <row r="130" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B130" s="48"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="50"/>
+    </row>
+    <row r="131" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B131" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
+    </row>
+    <row r="132" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="9"/>
+    </row>
+    <row r="135" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B135" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B136" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" s="11"/>
+      <c r="F136" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B137" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="20"/>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="23"/>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="24"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="26"/>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="24"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="26"/>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" s="24"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="26"/>
+    </row>
+    <row r="142" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B142" s="27"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="29"/>
+    </row>
+    <row r="143" spans="2:6" ht="20.25" customHeight="1">
+      <c r="B143" s="57"/>
+    </row>
+    <row r="144" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+    </row>
+    <row r="145" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+    </row>
+    <row r="146" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B146" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" s="52"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="52"/>
+    </row>
+    <row r="147" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B147" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D147" s="37"/>
+      <c r="E147" s="37"/>
+      <c r="F147" s="38"/>
+    </row>
+    <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B148" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C148" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
+      <c r="F148" s="38"/>
+    </row>
+    <row r="149" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B149" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D149" s="40"/>
+      <c r="E149" s="40"/>
+      <c r="F149" s="41"/>
+    </row>
+    <row r="150" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B150" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="44"/>
+    </row>
+    <row r="151" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B151" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="45"/>
+      <c r="D151" s="46"/>
+      <c r="E151" s="46"/>
+      <c r="F151" s="47"/>
+    </row>
+    <row r="152" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B152" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="32"/>
+    </row>
+    <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B153" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="32"/>
+    </row>
+    <row r="154" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B154" s="30"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="32"/>
+    </row>
+    <row r="155" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B155" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B156" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="20"/>
+    </row>
+    <row r="157" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B157" s="48"/>
+      <c r="C157" s="49"/>
+      <c r="D157" s="49"/>
+      <c r="E157" s="49"/>
+      <c r="F157" s="50"/>
+    </row>
+    <row r="158" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B158" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="20"/>
+    </row>
+    <row r="159" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B159" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B160" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B161" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="9"/>
+    </row>
+    <row r="162" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B162" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E162" s="11"/>
+      <c r="F162" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B163" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E163" s="11"/>
+      <c r="F163" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B164" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="20"/>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="B165" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="23"/>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" s="24"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="26"/>
+    </row>
+    <row r="167" spans="2:6">
+      <c r="B167" s="24"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="26"/>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" s="24"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="26"/>
+    </row>
+    <row r="169" spans="2:6" ht="39" customHeight="1" thickBot="1">
+      <c r="B169" s="27"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="29"/>
+    </row>
+    <row r="170" spans="2:6" ht="90" customHeight="1">
+      <c r="B170" s="15"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+    </row>
+    <row r="171" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B171" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" s="51"/>
+      <c r="D171" s="51"/>
+      <c r="E171" s="51"/>
+      <c r="F171" s="51"/>
+    </row>
+    <row r="172" spans="2:6" ht="21" thickBot="1">
+      <c r="B172" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="52"/>
+      <c r="D172" s="52"/>
+      <c r="E172" s="52"/>
+      <c r="F172" s="52"/>
+    </row>
+    <row r="173" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D173" s="37"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="38"/>
+    </row>
+    <row r="174" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B174" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C174" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D174" s="37"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="38"/>
+    </row>
+    <row r="175" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="40"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="41"/>
+    </row>
+    <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B176" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="43"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="44"/>
+    </row>
+    <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B177" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="45"/>
+      <c r="D177" s="46"/>
+      <c r="E177" s="46"/>
+      <c r="F177" s="47"/>
+    </row>
+    <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="32"/>
+    </row>
+    <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="32"/>
+    </row>
+    <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B180" s="30"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="32"/>
+    </row>
+    <row r="181" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B182" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="20"/>
+    </row>
+    <row r="183" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B183" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B184" s="33"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="35"/>
+    </row>
+    <row r="185" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B185" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="20"/>
+    </row>
+    <row r="186" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B186" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B187" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E188" s="4"/>
+      <c r="F188" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B189" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E189" s="11"/>
+      <c r="F189" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B190" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E190" s="11"/>
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B191" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="20"/>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="23"/>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="B193" s="24"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="26"/>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="B194" s="24"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="25"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="26"/>
+    </row>
+    <row r="195" spans="2:6">
+      <c r="B195" s="24"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
+      <c r="F195" s="26"/>
+    </row>
+    <row r="196" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B196" s="27"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="29"/>
+    </row>
+    <row r="197" spans="2:6" s="55" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="198" spans="2:6" ht="21" thickBot="1">
+      <c r="B198" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C198" s="52"/>
+      <c r="D198" s="52"/>
+      <c r="E198" s="52"/>
+      <c r="F198" s="52"/>
+    </row>
+    <row r="199" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B199" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D199" s="37"/>
+      <c r="E199" s="37"/>
+      <c r="F199" s="38"/>
+    </row>
+    <row r="200" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B200" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C200" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D200" s="37"/>
+      <c r="E200" s="37"/>
+      <c r="F200" s="38"/>
+    </row>
+    <row r="201" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B201" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="40"/>
+      <c r="E201" s="40"/>
+      <c r="F201" s="41"/>
+    </row>
+    <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B202" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="43"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="44"/>
+    </row>
+    <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B203" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="45"/>
+      <c r="D203" s="46"/>
+      <c r="E203" s="46"/>
+      <c r="F203" s="47"/>
+    </row>
+    <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B204" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" s="31"/>
+      <c r="E204" s="31"/>
+      <c r="F204" s="32"/>
+    </row>
+    <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B205" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" s="31"/>
+      <c r="E205" s="31"/>
+      <c r="F205" s="32"/>
+    </row>
+    <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B206" s="30"/>
+      <c r="C206" s="31"/>
+      <c r="D206" s="31"/>
+      <c r="E206" s="31"/>
+      <c r="F206" s="32"/>
+    </row>
+    <row r="207" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B207" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B208" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="20"/>
+    </row>
+    <row r="209" spans="2:6" ht="27.75" thickBot="1">
+      <c r="B209" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209" s="9"/>
+    </row>
+    <row r="210" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B210" s="10"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="9"/>
+    </row>
+    <row r="211" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B211" s="33"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="34"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="35"/>
+    </row>
+    <row r="212" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B212" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="20"/>
+    </row>
+    <row r="213" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B213" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B214" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E215" s="4"/>
+      <c r="F215" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B216" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E216" s="11"/>
+      <c r="F216" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B217" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E217" s="11"/>
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B218" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="19"/>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="20"/>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="B219" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="23"/>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" s="24"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="25"/>
+      <c r="E220" s="25"/>
+      <c r="F220" s="26"/>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="B221" s="24"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="26"/>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" s="24"/>
+      <c r="C222" s="25"/>
+      <c r="D222" s="25"/>
+      <c r="E222" s="25"/>
+      <c r="F222" s="26"/>
+    </row>
+    <row r="223" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B223" s="27"/>
+      <c r="C223" s="28"/>
+      <c r="D223" s="28"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="29"/>
+    </row>
+    <row r="224" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
+    <row r="225" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="226" spans="2:6" ht="21" thickBot="1">
+      <c r="B226" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" s="52"/>
+      <c r="D226" s="52"/>
+      <c r="E226" s="52"/>
+      <c r="F226" s="52"/>
+    </row>
+    <row r="227" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B227" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D227" s="37"/>
+      <c r="E227" s="37"/>
+      <c r="F227" s="38"/>
+    </row>
+    <row r="228" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B228" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C228" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D228" s="37"/>
+      <c r="E228" s="37"/>
+      <c r="F228" s="38"/>
+    </row>
+    <row r="229" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B229" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" s="40"/>
+      <c r="E229" s="40"/>
+      <c r="F229" s="41"/>
+    </row>
+    <row r="230" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B230" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="43"/>
+      <c r="E230" s="43"/>
+      <c r="F230" s="44"/>
+    </row>
+    <row r="231" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B231" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="45"/>
+      <c r="D231" s="46"/>
+      <c r="E231" s="46"/>
+      <c r="F231" s="47"/>
+    </row>
+    <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B232" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C232" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232" s="31"/>
+      <c r="E232" s="31"/>
+      <c r="F232" s="32"/>
+    </row>
+    <row r="233" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B233" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233" s="31"/>
+      <c r="E233" s="31"/>
+      <c r="F233" s="32"/>
+    </row>
+    <row r="234" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B234" s="30"/>
+      <c r="C234" s="31"/>
+      <c r="D234" s="31"/>
+      <c r="E234" s="31"/>
+      <c r="F234" s="32"/>
+    </row>
+    <row r="235" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B235" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="9"/>
+      <c r="E235" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B236" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" s="19"/>
+      <c r="D236" s="19"/>
+      <c r="E236" s="19"/>
+      <c r="F236" s="20"/>
+    </row>
+    <row r="237" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B237" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F237" s="9"/>
+    </row>
+    <row r="238" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B238" s="33"/>
+      <c r="C238" s="34"/>
+      <c r="D238" s="34"/>
+      <c r="E238" s="34"/>
+      <c r="F238" s="35"/>
+    </row>
+    <row r="239" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B239" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="19"/>
+      <c r="D239" s="19"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="20"/>
+    </row>
+    <row r="240" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B240" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B241" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E242" s="4"/>
+      <c r="F242" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B243" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E243" s="11"/>
+      <c r="F243" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B244" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E244" s="11"/>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B245" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" s="19"/>
+      <c r="D245" s="19"/>
+      <c r="E245" s="19"/>
+      <c r="F245" s="20"/>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="23"/>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="24"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="26"/>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="24"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="26"/>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="24"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="26"/>
-    </row>
-    <row r="109" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B109" s="27"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="29"/>
+      <c r="C246" s="22"/>
+      <c r="D246" s="22"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="23"/>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" s="24"/>
+      <c r="C247" s="25"/>
+      <c r="D247" s="25"/>
+      <c r="E247" s="25"/>
+      <c r="F247" s="26"/>
+    </row>
+    <row r="248" spans="2:6">
+      <c r="B248" s="24"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="25"/>
+      <c r="E248" s="25"/>
+      <c r="F248" s="26"/>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="B249" s="24"/>
+      <c r="C249" s="25"/>
+      <c r="D249" s="25"/>
+      <c r="E249" s="25"/>
+      <c r="F249" s="26"/>
+    </row>
+    <row r="250" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B250" s="27"/>
+      <c r="C250" s="28"/>
+      <c r="D250" s="28"/>
+      <c r="E250" s="28"/>
+      <c r="F250" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B78:F82"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C62:F62"/>
+  <mergeCells count="133">
+    <mergeCell ref="B165:F169"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B138:F142"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F115"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
-    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B246:F250"/>
+    <mergeCell ref="A197:XFD197"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B192:F196"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B82:F86"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B51:F55"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F109"/>
-    <mergeCell ref="A56:XFD56"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B211:F211"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C33" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
-    <hyperlink ref="C87" r:id="rId5"/>
-    <hyperlink ref="C86" r:id="rId6"/>
-    <hyperlink ref="C59" r:id="rId7"/>
-    <hyperlink ref="C58" r:id="rId8"/>
+    <hyperlink ref="C174" r:id="rId1"/>
+    <hyperlink ref="C62" r:id="rId2"/>
+    <hyperlink ref="C63" r:id="rId3"/>
+    <hyperlink ref="C173" r:id="rId4"/>
+    <hyperlink ref="C228" r:id="rId5"/>
+    <hyperlink ref="C227" r:id="rId6"/>
+    <hyperlink ref="C200" r:id="rId7"/>
+    <hyperlink ref="C199" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="C32" r:id="rId10"/>
+    <hyperlink ref="C6" r:id="rId11"/>
+    <hyperlink ref="C33" r:id="rId12"/>
+    <hyperlink ref="C91" r:id="rId13"/>
+    <hyperlink ref="C92" r:id="rId14"/>
+    <hyperlink ref="C120" r:id="rId15"/>
+    <hyperlink ref="C121" r:id="rId16"/>
+    <hyperlink ref="C147" r:id="rId17"/>
+    <hyperlink ref="C148" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/doc/Es搜索api接口_v1.xlsx
+++ b/doc/Es搜索api接口_v1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="146">
   <si>
     <t>服务地址</t>
   </si>
@@ -1671,6 +1671,22 @@
   <si>
     <t>curl http://54.222.222.172:8999/es/search/warm
 {"costMillisecond":524315.0,"costSecond":524.315,"data":"warm successfully,total keywords:1859","msg":"sucsess","code":0}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>图谱现实层数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2218,6 +2234,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2227,122 +2288,77 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3641,10 +3657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F250"/>
+  <dimension ref="B2:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B156" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165:F169"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3657,42 +3673,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
@@ -3781,13 +3797,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -3805,27 +3821,27 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="1" t="s">
@@ -3899,16 +3915,16 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="55" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="22"/>
@@ -3945,42 +3961,42 @@
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
@@ -4058,13 +4074,13 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
       <c r="B42" s="10" t="s">
@@ -4107,7 +4123,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="18" t="s">
         <v>90</v>
       </c>
       <c r="F45" s="9"/>
@@ -4146,39 +4162,39 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="50"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="38"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="55" t="s">
         <v>120</v>
       </c>
       <c r="C53" s="22"/>
@@ -4215,7 +4231,7 @@
       <c r="F57" s="29"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B58" s="57"/>
+      <c r="B58" s="19"/>
     </row>
     <row r="59" spans="2:6" ht="25.5" customHeight="1">
       <c r="B59" s="15"/>
@@ -4232,35 +4248,35 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="38"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="38"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="51"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
@@ -4338,13 +4354,13 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="35"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
       <c r="B72" s="10" t="s">
@@ -4362,133 +4378,141 @@
       <c r="F72" s="9"/>
     </row>
     <row r="73" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B74" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E74" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F74" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B74" s="48"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="50"/>
-    </row>
-    <row r="75" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B75" s="18" t="s">
+    <row r="75" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B75" s="36"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="38"/>
+    </row>
+    <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B76" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20"/>
-    </row>
-    <row r="76" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="35"/>
     </row>
     <row r="77" spans="2:6" ht="14.25" thickBot="1">
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="2:6" ht="64.5" thickBot="1">
+    <row r="78" spans="2:6" ht="14.25" thickBot="1">
       <c r="B78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="2:6" ht="64.5" thickBot="1">
+      <c r="B79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D79" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="9" t="s">
+      <c r="E79" s="4"/>
+      <c r="F79" s="9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B79" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="14.25" thickBot="1">
       <c r="B80" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B81" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="4" t="s">
+      <c r="E81" s="11"/>
+      <c r="F81" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B81" s="18" t="s">
+    <row r="82" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B82" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="20"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="54" t="s">
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="35"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="26"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="23"/>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="24"/>
@@ -4504,288 +4528,288 @@
       <c r="E85" s="25"/>
       <c r="F85" s="26"/>
     </row>
-    <row r="86" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B86" s="27"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="29"/>
-    </row>
-    <row r="87" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B87" s="57"/>
-    </row>
-    <row r="88" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-    </row>
-    <row r="89" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+    <row r="86" spans="2:6">
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="26"/>
+    </row>
+    <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B87" s="27"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="29"/>
+    </row>
+    <row r="88" spans="2:6" ht="20.25" customHeight="1">
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
     </row>
     <row r="90" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B90" s="52" t="s">
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+    </row>
+    <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B91" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-    </row>
-    <row r="91" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B91" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="38"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="51"/>
+    </row>
+    <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C93" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="38"/>
-    </row>
-    <row r="93" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B93" s="7" t="s">
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="51"/>
+    </row>
+    <row r="94" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="39" t="s">
+      <c r="C94" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="41"/>
-    </row>
-    <row r="94" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B94" s="7" t="s">
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="41"/>
+    </row>
+    <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C95" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="44"/>
-    </row>
-    <row r="95" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B95" s="7" t="s">
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="44"/>
+    </row>
+    <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="45"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="47"/>
-    </row>
-    <row r="96" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B96" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="32"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="47"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D97" s="31"/>
       <c r="E97" s="31"/>
       <c r="F97" s="32"/>
     </row>
-    <row r="98" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B98" s="30"/>
-      <c r="C98" s="31"/>
+    <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B98" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="D98" s="31"/>
       <c r="E98" s="31"/>
       <c r="F98" s="32"/>
     </row>
-    <row r="99" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B99" s="7" t="s">
+    <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B99" s="30"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="32"/>
+    </row>
+    <row r="100" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B100" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C100" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
+      <c r="D100" s="9"/>
+      <c r="E100" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F100" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B100" s="18" t="s">
+    <row r="101" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B101" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="20"/>
-    </row>
-    <row r="101" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B101" s="58" t="s">
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="35"/>
+    </row>
+    <row r="102" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B102" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C102" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D102" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E102" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F102" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B102" s="17" t="s">
+    <row r="103" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B103" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D103" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E103" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F103" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B103" s="48"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="50"/>
-    </row>
-    <row r="104" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B104" s="18" t="s">
+    <row r="104" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B104" s="36"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="38"/>
+    </row>
+    <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B105" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="20"/>
-    </row>
-    <row r="105" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="35"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" thickBot="1">
       <c r="B106" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
     <row r="107" spans="2:6" ht="14.25" thickBot="1">
       <c r="B107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B108" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C108" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D108" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="9"/>
-    </row>
-    <row r="108" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B108" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="2:6" ht="14.25" thickBot="1">
       <c r="B109" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="11"/>
+      <c r="F109" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B110" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D110" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="4" t="s">
+      <c r="E110" s="11"/>
+      <c r="F110" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B110" s="18" t="s">
+    <row r="111" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B111" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="20"/>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="59" t="s">
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="35"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="23"/>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="24"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="26"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="23"/>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="24"/>
@@ -4801,254 +4825,254 @@
       <c r="E114" s="25"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B115" s="27"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="29"/>
-    </row>
-    <row r="116" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B116" s="57"/>
-    </row>
-    <row r="117" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-    </row>
-    <row r="118" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
+    <row r="115" spans="2:6">
+      <c r="B115" s="24"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="26"/>
+    </row>
+    <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B116" s="27"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="29"/>
+    </row>
+    <row r="117" spans="2:6" ht="20.25" customHeight="1">
+      <c r="B117" s="19"/>
+    </row>
+    <row r="118" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
     </row>
     <row r="119" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B119" s="52" t="s">
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+    </row>
+    <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B120" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C119" s="52"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
-    </row>
-    <row r="120" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B120" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="38"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="51"/>
+    </row>
+    <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C121" s="36" t="s">
+      <c r="C122" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="38"/>
-    </row>
-    <row r="122" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B122" s="7" t="s">
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="51"/>
+    </row>
+    <row r="123" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C122" s="39" t="s">
+      <c r="C123" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D122" s="40"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="41"/>
-    </row>
-    <row r="123" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B123" s="7" t="s">
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="41"/>
+    </row>
+    <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C123" s="42" t="s">
+      <c r="C124" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D123" s="43"/>
-      <c r="E123" s="43"/>
-      <c r="F123" s="44"/>
-    </row>
-    <row r="124" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B124" s="7" t="s">
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="44"/>
+    </row>
+    <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="45"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="46"/>
-      <c r="F124" s="47"/>
-    </row>
-    <row r="125" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B125" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="32"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="46"/>
+      <c r="F125" s="47"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D126" s="31"/>
       <c r="E126" s="31"/>
       <c r="F126" s="32"/>
     </row>
-    <row r="127" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B127" s="30"/>
-      <c r="C127" s="31"/>
+    <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B127" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="D127" s="31"/>
       <c r="E127" s="31"/>
       <c r="F127" s="32"/>
     </row>
-    <row r="128" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B128" s="7" t="s">
+    <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B128" s="30"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="32"/>
+    </row>
+    <row r="129" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B129" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C129" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9" t="s">
+      <c r="D129" s="9"/>
+      <c r="E129" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F129" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B129" s="18" t="s">
+    <row r="130" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B130" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="20"/>
-    </row>
-    <row r="130" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B130" s="48"/>
-      <c r="C130" s="49"/>
-      <c r="D130" s="49"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="50"/>
-    </row>
-    <row r="131" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B131" s="18" t="s">
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="35"/>
+    </row>
+    <row r="131" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B131" s="36"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="37"/>
+      <c r="F131" s="38"/>
+    </row>
+    <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B132" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="20"/>
-    </row>
-    <row r="132" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B132" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="35"/>
     </row>
     <row r="133" spans="2:6" ht="14.25" thickBot="1">
       <c r="B133" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
     <row r="134" spans="2:6" ht="14.25" thickBot="1">
       <c r="B134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C135" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D135" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="9"/>
-    </row>
-    <row r="135" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B135" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E135" s="11"/>
-      <c r="F135" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="9"/>
     </row>
     <row r="136" spans="2:6" ht="14.25" thickBot="1">
       <c r="B136" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" s="11"/>
+      <c r="F136" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B137" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C137" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D137" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E136" s="11"/>
-      <c r="F136" s="4" t="s">
+      <c r="E137" s="11"/>
+      <c r="F137" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B137" s="18" t="s">
+    <row r="138" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B138" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="20"/>
-    </row>
-    <row r="138" spans="2:6">
-      <c r="B138" s="59" t="s">
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="35"/>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="23"/>
-    </row>
-    <row r="139" spans="2:6">
-      <c r="B139" s="24"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
-      <c r="F139" s="26"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="23"/>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="24"/>
@@ -5064,254 +5088,254 @@
       <c r="E141" s="25"/>
       <c r="F141" s="26"/>
     </row>
-    <row r="142" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B142" s="27"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="29"/>
-    </row>
-    <row r="143" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B143" s="57"/>
-    </row>
-    <row r="144" spans="2:6" ht="25.5" customHeight="1">
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-    </row>
-    <row r="145" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
+    <row r="142" spans="2:6">
+      <c r="B142" s="24"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="26"/>
+    </row>
+    <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B143" s="27"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="29"/>
+    </row>
+    <row r="144" spans="2:6" ht="20.25" customHeight="1">
+      <c r="B144" s="19"/>
+    </row>
+    <row r="145" spans="2:6" ht="25.5" customHeight="1">
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
     </row>
     <row r="146" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B146" s="52" t="s">
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+    </row>
+    <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B147" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C146" s="52"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
-      <c r="F146" s="52"/>
-    </row>
-    <row r="147" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B147" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C147" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="38"/>
+      <c r="C147" s="48"/>
+      <c r="D147" s="48"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="48"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="51"/>
+    </row>
+    <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C148" s="36" t="s">
+      <c r="C149" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="38"/>
-    </row>
-    <row r="149" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B149" s="7" t="s">
+      <c r="D149" s="50"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="51"/>
+    </row>
+    <row r="150" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="39" t="s">
+      <c r="C150" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D149" s="40"/>
-      <c r="E149" s="40"/>
-      <c r="F149" s="41"/>
-    </row>
-    <row r="150" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B150" s="7" t="s">
+      <c r="D150" s="40"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="41"/>
+    </row>
+    <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C150" s="42" t="s">
+      <c r="C151" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D150" s="43"/>
-      <c r="E150" s="43"/>
-      <c r="F150" s="44"/>
-    </row>
-    <row r="151" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B151" s="7" t="s">
+      <c r="D151" s="43"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="44"/>
+    </row>
+    <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="45"/>
-      <c r="D151" s="46"/>
-      <c r="E151" s="46"/>
-      <c r="F151" s="47"/>
-    </row>
-    <row r="152" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B152" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="32"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="47"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
       <c r="F153" s="32"/>
     </row>
-    <row r="154" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B154" s="30"/>
-      <c r="C154" s="31"/>
+    <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B154" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="D154" s="31"/>
       <c r="E154" s="31"/>
       <c r="F154" s="32"/>
     </row>
-    <row r="155" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B155" s="7" t="s">
+    <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B155" s="30"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="32"/>
+    </row>
+    <row r="156" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B156" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C156" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9" t="s">
+      <c r="D156" s="9"/>
+      <c r="E156" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="F156" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B156" s="18" t="s">
+    <row r="157" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B157" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="20"/>
-    </row>
-    <row r="157" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B157" s="48"/>
-      <c r="C157" s="49"/>
-      <c r="D157" s="49"/>
-      <c r="E157" s="49"/>
-      <c r="F157" s="50"/>
-    </row>
-    <row r="158" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B158" s="18" t="s">
+      <c r="C157" s="34"/>
+      <c r="D157" s="34"/>
+      <c r="E157" s="34"/>
+      <c r="F157" s="35"/>
+    </row>
+    <row r="158" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B158" s="36"/>
+      <c r="C158" s="37"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="38"/>
+    </row>
+    <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B159" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="20"/>
-    </row>
-    <row r="159" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B159" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="34"/>
+      <c r="F159" s="35"/>
     </row>
     <row r="160" spans="2:6" ht="14.25" thickBot="1">
       <c r="B160" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
     <row r="161" spans="2:6" ht="14.25" thickBot="1">
       <c r="B161" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B162" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C162" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D162" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="9"/>
-    </row>
-    <row r="162" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B162" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E162" s="11"/>
-      <c r="F162" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="9"/>
     </row>
     <row r="163" spans="2:6" ht="14.25" thickBot="1">
       <c r="B163" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E163" s="11"/>
+      <c r="F163" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B164" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C164" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D164" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E163" s="11"/>
-      <c r="F163" s="4" t="s">
+      <c r="E164" s="11"/>
+      <c r="F164" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B164" s="18" t="s">
+    <row r="165" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B165" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="20"/>
-    </row>
-    <row r="165" spans="2:6">
-      <c r="B165" s="59" t="s">
+      <c r="C165" s="34"/>
+      <c r="D165" s="34"/>
+      <c r="E165" s="34"/>
+      <c r="F165" s="35"/>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="23"/>
-    </row>
-    <row r="166" spans="2:6">
-      <c r="B166" s="24"/>
-      <c r="C166" s="25"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="25"/>
-      <c r="F166" s="26"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="23"/>
     </row>
     <row r="167" spans="2:6">
       <c r="B167" s="24"/>
@@ -5327,105 +5351,101 @@
       <c r="E168" s="25"/>
       <c r="F168" s="26"/>
     </row>
-    <row r="169" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B169" s="27"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="29"/>
-    </row>
-    <row r="170" spans="2:6" ht="90" customHeight="1">
-      <c r="B170" s="15"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-    </row>
-    <row r="171" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B171" s="51" t="s">
+    <row r="169" spans="2:6">
+      <c r="B169" s="24"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="26"/>
+    </row>
+    <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
+      <c r="B170" s="27"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="29"/>
+    </row>
+    <row r="171" spans="2:6" ht="90" customHeight="1">
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+    </row>
+    <row r="172" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B172" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C171" s="51"/>
-      <c r="D171" s="51"/>
-      <c r="E171" s="51"/>
-      <c r="F171" s="51"/>
-    </row>
-    <row r="172" spans="2:6" ht="21" thickBot="1">
-      <c r="B172" s="52" t="s">
+      <c r="C172" s="59"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="59"/>
+    </row>
+    <row r="173" spans="2:6" ht="21" thickBot="1">
+      <c r="B173" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C172" s="52"/>
-      <c r="D172" s="52"/>
-      <c r="E172" s="52"/>
-      <c r="F172" s="52"/>
-    </row>
-    <row r="173" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B173" s="12" t="s">
+      <c r="C173" s="48"/>
+      <c r="D173" s="48"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="48"/>
+    </row>
+    <row r="174" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B174" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="36" t="s">
+      <c r="C174" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="38"/>
-    </row>
-    <row r="174" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B174" s="5" t="s">
+      <c r="D174" s="50"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="51"/>
+    </row>
+    <row r="175" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B175" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C174" s="36" t="s">
+      <c r="C175" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D174" s="37"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="38"/>
-    </row>
-    <row r="175" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B175" s="2" t="s">
+      <c r="D175" s="50"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="51"/>
+    </row>
+    <row r="176" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B176" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="39" t="s">
+      <c r="C176" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D175" s="40"/>
-      <c r="E175" s="40"/>
-      <c r="F175" s="41"/>
-    </row>
-    <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B176" s="2" t="s">
+      <c r="D176" s="40"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="41"/>
+    </row>
+    <row r="177" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B177" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="42" t="s">
+      <c r="C177" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="43"/>
-      <c r="E176" s="43"/>
-      <c r="F176" s="44"/>
-    </row>
-    <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B177" s="2" t="s">
+      <c r="D177" s="43"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="44"/>
+    </row>
+    <row r="178" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B178" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="45"/>
-      <c r="D177" s="46"/>
-      <c r="E177" s="46"/>
-      <c r="F177" s="47"/>
-    </row>
-    <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B178" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C178" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="31"/>
-      <c r="E178" s="31"/>
-      <c r="F178" s="32"/>
+      <c r="C178" s="45"/>
+      <c r="D178" s="46"/>
+      <c r="E178" s="46"/>
+      <c r="F178" s="47"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C179" s="30" t="s">
         <v>4</v>
@@ -5434,161 +5454,165 @@
       <c r="E179" s="31"/>
       <c r="F179" s="32"/>
     </row>
-    <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="30"/>
-      <c r="C180" s="31"/>
+    <row r="180" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="D180" s="31"/>
       <c r="E180" s="31"/>
       <c r="F180" s="32"/>
     </row>
-    <row r="181" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B181" s="2" t="s">
+    <row r="181" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B181" s="30"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="32"/>
+    </row>
+    <row r="182" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B182" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3" t="s">
+      <c r="D182" s="3"/>
+      <c r="E182" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="F182" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B182" s="18" t="s">
+    <row r="183" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B183" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="20"/>
-    </row>
-    <row r="183" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="34"/>
+      <c r="D183" s="34"/>
+      <c r="E183" s="34"/>
+      <c r="F183" s="35"/>
+    </row>
+    <row r="184" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B184" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E184" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F183" s="3"/>
-    </row>
-    <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="33"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="34"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="35"/>
-    </row>
-    <row r="185" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B185" s="18" t="s">
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B185" s="52"/>
+      <c r="C185" s="53"/>
+      <c r="D185" s="53"/>
+      <c r="E185" s="53"/>
+      <c r="F185" s="54"/>
+    </row>
+    <row r="186" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B186" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="20"/>
-    </row>
-    <row r="186" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B186" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
+      <c r="C186" s="34"/>
+      <c r="D186" s="34"/>
+      <c r="E186" s="34"/>
+      <c r="F186" s="35"/>
     </row>
     <row r="187" spans="2:6" ht="14.25" thickBot="1">
       <c r="B187" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
     </row>
     <row r="188" spans="2:6" ht="14.25" thickBot="1">
       <c r="B188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B189" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C189" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D189" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E188" s="4"/>
-      <c r="F188" s="9" t="s">
+      <c r="E189" s="4"/>
+      <c r="F189" s="9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="189" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B189" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E189" s="11"/>
-      <c r="F189" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="190" spans="2:6" ht="14.25" thickBot="1">
       <c r="B190" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E190" s="11"/>
+      <c r="F190" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B191" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C191" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D191" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E190" s="11"/>
-      <c r="F190" s="4"/>
-    </row>
-    <row r="191" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B191" s="18" t="s">
+      <c r="E191" s="11"/>
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B192" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="20"/>
-    </row>
-    <row r="192" spans="2:6">
-      <c r="B192" s="21" t="s">
+      <c r="C192" s="34"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="34"/>
+      <c r="F192" s="35"/>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="B193" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
-      <c r="E192" s="22"/>
-      <c r="F192" s="23"/>
-    </row>
-    <row r="193" spans="2:6">
-      <c r="B193" s="24"/>
-      <c r="C193" s="25"/>
-      <c r="D193" s="25"/>
-      <c r="E193" s="25"/>
-      <c r="F193" s="26"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="23"/>
     </row>
     <row r="194" spans="2:6">
       <c r="B194" s="24"/>
@@ -5604,90 +5628,86 @@
       <c r="E195" s="25"/>
       <c r="F195" s="26"/>
     </row>
-    <row r="196" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B196" s="27"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="29"/>
-    </row>
-    <row r="197" spans="2:6" s="55" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="198" spans="2:6" ht="21" thickBot="1">
-      <c r="B198" s="52" t="s">
+    <row r="196" spans="2:6">
+      <c r="B196" s="24"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="26"/>
+    </row>
+    <row r="197" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B197" s="27"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="29"/>
+    </row>
+    <row r="198" spans="2:6" s="56" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="199" spans="2:6" ht="21" thickBot="1">
+      <c r="B199" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C198" s="52"/>
-      <c r="D198" s="52"/>
-      <c r="E198" s="52"/>
-      <c r="F198" s="52"/>
-    </row>
-    <row r="199" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B199" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C199" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D199" s="37"/>
-      <c r="E199" s="37"/>
-      <c r="F199" s="38"/>
+      <c r="C199" s="48"/>
+      <c r="D199" s="48"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="48"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" thickBot="1">
       <c r="B200" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D200" s="50"/>
+      <c r="E200" s="50"/>
+      <c r="F200" s="51"/>
+    </row>
+    <row r="201" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B201" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C200" s="36" t="s">
+      <c r="C201" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D200" s="37"/>
-      <c r="E200" s="37"/>
-      <c r="F200" s="38"/>
-    </row>
-    <row r="201" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B201" s="7" t="s">
+      <c r="D201" s="50"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="51"/>
+    </row>
+    <row r="202" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B202" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="39" t="s">
+      <c r="C202" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D201" s="40"/>
-      <c r="E201" s="40"/>
-      <c r="F201" s="41"/>
-    </row>
-    <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B202" s="7" t="s">
+      <c r="D202" s="40"/>
+      <c r="E202" s="40"/>
+      <c r="F202" s="41"/>
+    </row>
+    <row r="203" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B203" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="42" t="s">
+      <c r="C203" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="43"/>
-      <c r="E202" s="43"/>
-      <c r="F202" s="44"/>
-    </row>
-    <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B203" s="7" t="s">
+      <c r="D203" s="43"/>
+      <c r="E203" s="43"/>
+      <c r="F203" s="44"/>
+    </row>
+    <row r="204" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B204" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="45"/>
-      <c r="D203" s="46"/>
-      <c r="E203" s="46"/>
-      <c r="F203" s="47"/>
-    </row>
-    <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B204" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C204" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D204" s="31"/>
-      <c r="E204" s="31"/>
-      <c r="F204" s="32"/>
+      <c r="C204" s="45"/>
+      <c r="D204" s="46"/>
+      <c r="E204" s="46"/>
+      <c r="F204" s="47"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B205" s="7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C205" s="30" t="s">
         <v>4</v>
@@ -5696,168 +5716,172 @@
       <c r="E205" s="31"/>
       <c r="F205" s="32"/>
     </row>
-    <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B206" s="30"/>
-      <c r="C206" s="31"/>
+    <row r="206" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B206" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="D206" s="31"/>
       <c r="E206" s="31"/>
       <c r="F206" s="32"/>
     </row>
-    <row r="207" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B207" s="7" t="s">
+    <row r="207" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B207" s="30"/>
+      <c r="C207" s="31"/>
+      <c r="D207" s="31"/>
+      <c r="E207" s="31"/>
+      <c r="F207" s="32"/>
+    </row>
+    <row r="208" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B208" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C208" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D207" s="9"/>
-      <c r="E207" s="9" t="s">
+      <c r="D208" s="9"/>
+      <c r="E208" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F207" s="9" t="s">
+      <c r="F208" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B208" s="18" t="s">
+    <row r="209" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B209" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C208" s="19"/>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19"/>
-      <c r="F208" s="20"/>
-    </row>
-    <row r="209" spans="2:6" ht="27.75" thickBot="1">
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="34"/>
+      <c r="D209" s="34"/>
+      <c r="E209" s="34"/>
+      <c r="F209" s="35"/>
+    </row>
+    <row r="210" spans="2:6" ht="27.75" thickBot="1">
+      <c r="B210" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C210" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="D210" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E210" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F209" s="9"/>
-    </row>
-    <row r="210" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B210" s="10"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="14"/>
       <c r="F210" s="9"/>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="33"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="34"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="35"/>
-    </row>
-    <row r="212" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B212" s="18" t="s">
+      <c r="B211" s="10"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="9"/>
+    </row>
+    <row r="212" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B212" s="52"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="53"/>
+      <c r="E212" s="53"/>
+      <c r="F212" s="54"/>
+    </row>
+    <row r="213" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B213" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="20"/>
-    </row>
-    <row r="213" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B213" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
+      <c r="C213" s="34"/>
+      <c r="D213" s="34"/>
+      <c r="E213" s="34"/>
+      <c r="F213" s="35"/>
     </row>
     <row r="214" spans="2:6" ht="14.25" thickBot="1">
       <c r="B214" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
     <row r="215" spans="2:6" ht="14.25" thickBot="1">
       <c r="B215" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B216" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C216" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="D216" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E215" s="4"/>
-      <c r="F215" s="9" t="s">
+      <c r="E216" s="4"/>
+      <c r="F216" s="9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B216" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E216" s="11"/>
-      <c r="F216" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="217" spans="2:6" ht="14.25" thickBot="1">
       <c r="B217" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E217" s="11"/>
+      <c r="F217" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B218" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C218" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D218" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E217" s="11"/>
-      <c r="F217" s="4"/>
-    </row>
-    <row r="218" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B218" s="18" t="s">
+      <c r="E218" s="11"/>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B219" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="20"/>
-    </row>
-    <row r="219" spans="2:6">
-      <c r="B219" s="21" t="s">
+      <c r="C219" s="34"/>
+      <c r="D219" s="34"/>
+      <c r="E219" s="34"/>
+      <c r="F219" s="35"/>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22"/>
-      <c r="F219" s="23"/>
-    </row>
-    <row r="220" spans="2:6">
-      <c r="B220" s="24"/>
-      <c r="C220" s="25"/>
-      <c r="D220" s="25"/>
-      <c r="E220" s="25"/>
-      <c r="F220" s="26"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="23"/>
     </row>
     <row r="221" spans="2:6">
       <c r="B221" s="24"/>
@@ -5873,91 +5897,87 @@
       <c r="E222" s="25"/>
       <c r="F222" s="26"/>
     </row>
-    <row r="223" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B223" s="27"/>
-      <c r="C223" s="28"/>
-      <c r="D223" s="28"/>
-      <c r="E223" s="28"/>
-      <c r="F223" s="29"/>
-    </row>
-    <row r="224" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
-    <row r="225" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="226" spans="2:6" ht="21" thickBot="1">
-      <c r="B226" s="52" t="s">
+    <row r="223" spans="2:6">
+      <c r="B223" s="24"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="25"/>
+      <c r="E223" s="25"/>
+      <c r="F223" s="26"/>
+    </row>
+    <row r="224" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B224" s="27"/>
+      <c r="C224" s="28"/>
+      <c r="D224" s="28"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="29"/>
+    </row>
+    <row r="225" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
+    <row r="226" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="227" spans="2:6" ht="21" thickBot="1">
+      <c r="B227" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C226" s="52"/>
-      <c r="D226" s="52"/>
-      <c r="E226" s="52"/>
-      <c r="F226" s="52"/>
-    </row>
-    <row r="227" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B227" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C227" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D227" s="37"/>
-      <c r="E227" s="37"/>
-      <c r="F227" s="38"/>
+      <c r="C227" s="48"/>
+      <c r="D227" s="48"/>
+      <c r="E227" s="48"/>
+      <c r="F227" s="48"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
       <c r="B228" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D228" s="50"/>
+      <c r="E228" s="50"/>
+      <c r="F228" s="51"/>
+    </row>
+    <row r="229" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B229" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="36" t="s">
+      <c r="C229" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D228" s="37"/>
-      <c r="E228" s="37"/>
-      <c r="F228" s="38"/>
-    </row>
-    <row r="229" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B229" s="7" t="s">
+      <c r="D229" s="50"/>
+      <c r="E229" s="50"/>
+      <c r="F229" s="51"/>
+    </row>
+    <row r="230" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B230" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C229" s="39" t="s">
+      <c r="C230" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D229" s="40"/>
-      <c r="E229" s="40"/>
-      <c r="F229" s="41"/>
-    </row>
-    <row r="230" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B230" s="7" t="s">
+      <c r="D230" s="40"/>
+      <c r="E230" s="40"/>
+      <c r="F230" s="41"/>
+    </row>
+    <row r="231" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B231" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C230" s="42" t="s">
+      <c r="C231" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D230" s="43"/>
-      <c r="E230" s="43"/>
-      <c r="F230" s="44"/>
-    </row>
-    <row r="231" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B231" s="7" t="s">
+      <c r="D231" s="43"/>
+      <c r="E231" s="43"/>
+      <c r="F231" s="44"/>
+    </row>
+    <row r="232" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B232" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C231" s="45"/>
-      <c r="D231" s="46"/>
-      <c r="E231" s="46"/>
-      <c r="F231" s="47"/>
-    </row>
-    <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B232" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C232" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D232" s="31"/>
-      <c r="E232" s="31"/>
-      <c r="F232" s="32"/>
+      <c r="C232" s="45"/>
+      <c r="D232" s="46"/>
+      <c r="E232" s="46"/>
+      <c r="F232" s="47"/>
     </row>
     <row r="233" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B233" s="7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C233" s="30" t="s">
         <v>4</v>
@@ -5966,161 +5986,165 @@
       <c r="E233" s="31"/>
       <c r="F233" s="32"/>
     </row>
-    <row r="234" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B234" s="30"/>
-      <c r="C234" s="31"/>
+    <row r="234" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B234" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="D234" s="31"/>
       <c r="E234" s="31"/>
       <c r="F234" s="32"/>
     </row>
-    <row r="235" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B235" s="7" t="s">
+    <row r="235" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B235" s="30"/>
+      <c r="C235" s="31"/>
+      <c r="D235" s="31"/>
+      <c r="E235" s="31"/>
+      <c r="F235" s="32"/>
+    </row>
+    <row r="236" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B236" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="C236" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D235" s="9"/>
-      <c r="E235" s="9" t="s">
+      <c r="D236" s="9"/>
+      <c r="E236" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F235" s="9" t="s">
+      <c r="F236" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B236" s="18" t="s">
+    <row r="237" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B237" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C236" s="19"/>
-      <c r="D236" s="19"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="20"/>
-    </row>
-    <row r="237" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B237" s="1" t="s">
+      <c r="C237" s="34"/>
+      <c r="D237" s="34"/>
+      <c r="E237" s="34"/>
+      <c r="F237" s="35"/>
+    </row>
+    <row r="238" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B238" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="C238" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="D238" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E237" s="6" t="s">
+      <c r="E238" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F237" s="9"/>
-    </row>
-    <row r="238" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B238" s="33"/>
-      <c r="C238" s="34"/>
-      <c r="D238" s="34"/>
-      <c r="E238" s="34"/>
-      <c r="F238" s="35"/>
-    </row>
-    <row r="239" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B239" s="18" t="s">
+      <c r="F238" s="9"/>
+    </row>
+    <row r="239" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B239" s="52"/>
+      <c r="C239" s="53"/>
+      <c r="D239" s="53"/>
+      <c r="E239" s="53"/>
+      <c r="F239" s="54"/>
+    </row>
+    <row r="240" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B240" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C239" s="19"/>
-      <c r="D239" s="19"/>
-      <c r="E239" s="19"/>
-      <c r="F239" s="20"/>
-    </row>
-    <row r="240" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B240" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
+      <c r="C240" s="34"/>
+      <c r="D240" s="34"/>
+      <c r="E240" s="34"/>
+      <c r="F240" s="35"/>
     </row>
     <row r="241" spans="2:6" ht="14.25" thickBot="1">
       <c r="B241" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
     <row r="242" spans="2:6" ht="14.25" thickBot="1">
       <c r="B242" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B243" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C243" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E242" s="4"/>
-      <c r="F242" s="9" t="s">
+      <c r="E243" s="4"/>
+      <c r="F243" s="9" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E243" s="11"/>
-      <c r="F243" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="244" spans="2:6" ht="14.25" thickBot="1">
       <c r="B244" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E244" s="11"/>
+      <c r="F244" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B245" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C245" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D244" s="8" t="s">
+      <c r="D245" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E244" s="11"/>
-      <c r="F244" s="4"/>
-    </row>
-    <row r="245" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B245" s="18" t="s">
+      <c r="E245" s="11"/>
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B246" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C245" s="19"/>
-      <c r="D245" s="19"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="20"/>
-    </row>
-    <row r="246" spans="2:6">
-      <c r="B246" s="21" t="s">
+      <c r="C246" s="34"/>
+      <c r="D246" s="34"/>
+      <c r="E246" s="34"/>
+      <c r="F246" s="35"/>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C246" s="22"/>
-      <c r="D246" s="22"/>
-      <c r="E246" s="22"/>
-      <c r="F246" s="23"/>
-    </row>
-    <row r="247" spans="2:6">
-      <c r="B247" s="24"/>
-      <c r="C247" s="25"/>
-      <c r="D247" s="25"/>
-      <c r="E247" s="25"/>
-      <c r="F247" s="26"/>
+      <c r="C247" s="22"/>
+      <c r="D247" s="22"/>
+      <c r="E247" s="22"/>
+      <c r="F247" s="23"/>
     </row>
     <row r="248" spans="2:6">
       <c r="B248" s="24"/>
@@ -6136,56 +6160,101 @@
       <c r="E249" s="25"/>
       <c r="F249" s="26"/>
     </row>
-    <row r="250" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B250" s="27"/>
-      <c r="C250" s="28"/>
-      <c r="D250" s="28"/>
-      <c r="E250" s="28"/>
-      <c r="F250" s="29"/>
+    <row r="250" spans="2:6">
+      <c r="B250" s="24"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="25"/>
+      <c r="E250" s="25"/>
+      <c r="F250" s="26"/>
+    </row>
+    <row r="251" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B251" s="27"/>
+      <c r="C251" s="28"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="28"/>
+      <c r="F251" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="B165:F169"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B138:F142"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="C147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F115"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F224"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="C95:F95"/>
     <mergeCell ref="C96:F96"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B83:F87"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F251"/>
+    <mergeCell ref="A198:XFD198"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="C234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B193:F197"/>
+    <mergeCell ref="B82:F82"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
@@ -6196,109 +6265,71 @@
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B246:F250"/>
-    <mergeCell ref="A197:XFD197"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="C233:F233"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B192:F196"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C175:F175"/>
-    <mergeCell ref="C176:F176"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B82:F86"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
     <mergeCell ref="B61:F61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="C64:F64"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F223"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F116"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F143"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B166:F170"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C174" r:id="rId1"/>
+    <hyperlink ref="C175" r:id="rId1"/>
     <hyperlink ref="C62" r:id="rId2"/>
     <hyperlink ref="C63" r:id="rId3"/>
-    <hyperlink ref="C173" r:id="rId4"/>
-    <hyperlink ref="C228" r:id="rId5"/>
-    <hyperlink ref="C227" r:id="rId6"/>
-    <hyperlink ref="C200" r:id="rId7"/>
-    <hyperlink ref="C199" r:id="rId8"/>
+    <hyperlink ref="C174" r:id="rId4"/>
+    <hyperlink ref="C229" r:id="rId5"/>
+    <hyperlink ref="C228" r:id="rId6"/>
+    <hyperlink ref="C201" r:id="rId7"/>
+    <hyperlink ref="C200" r:id="rId8"/>
     <hyperlink ref="C5" r:id="rId9"/>
     <hyperlink ref="C32" r:id="rId10"/>
     <hyperlink ref="C6" r:id="rId11"/>
     <hyperlink ref="C33" r:id="rId12"/>
-    <hyperlink ref="C91" r:id="rId13"/>
-    <hyperlink ref="C92" r:id="rId14"/>
-    <hyperlink ref="C120" r:id="rId15"/>
-    <hyperlink ref="C121" r:id="rId16"/>
-    <hyperlink ref="C147" r:id="rId17"/>
-    <hyperlink ref="C148" r:id="rId18"/>
+    <hyperlink ref="C92" r:id="rId13"/>
+    <hyperlink ref="C93" r:id="rId14"/>
+    <hyperlink ref="C121" r:id="rId15"/>
+    <hyperlink ref="C122" r:id="rId16"/>
+    <hyperlink ref="C148" r:id="rId17"/>
+    <hyperlink ref="C149" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId19"/>

--- a/doc/Es搜索api接口_v1.xlsx
+++ b/doc/Es搜索api接口_v1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="155">
   <si>
     <t>服务地址</t>
   </si>
@@ -1687,6 +1687,76 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清除指定图谱节点</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/search/nlp_cache/clean</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8999/es/search/nlp_cache/clean</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodes</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>要清掉的节点列表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set[String]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>curl -vg -X POST -d '{"nodes":["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大洋电机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"]}' http://54.222.222.172:8999/es/search/nlp_cache/clean
+{"costMillisecond":10.0,"costSecond":0.01,"data":"clean graph_state from redis successfully","msg":"sucsess","code":0}
+</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2179,7 +2249,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2243,122 +2313,125 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3657,10 +3730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F251"/>
+  <dimension ref="B2:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:F68"/>
+    <sheetView tabSelected="1" topLeftCell="B170" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180:F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3673,113 +3746,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="2:6" ht="13.5" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -3797,13 +3870,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -3821,27 +3894,27 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="1" t="s">
@@ -3915,148 +3988,148 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -4074,13 +4147,13 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
       <c r="B42" s="10" t="s">
@@ -4162,73 +4235,73 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="38"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="54"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="36"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="26"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="42"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="26"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="42"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -4248,95 +4321,95 @@
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
     </row>
     <row r="62" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="51"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="51"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="41"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="44"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="30"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="47"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="33"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="48"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="32"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="48"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="32"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="48"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -4354,13 +4427,13 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="36"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
       <c r="B72" s="10" t="s">
@@ -4410,20 +4483,20 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="36"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="38"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="54"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="36"/>
     </row>
     <row r="77" spans="2:6" ht="14.25" thickBot="1">
       <c r="B77" s="1" t="s">
@@ -4497,50 +4570,50 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="36"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="57" t="s">
+      <c r="B83" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="23"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="39"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="26"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="42"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="26"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="42"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="26"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="42"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="27"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="29"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="45"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -4560,95 +4633,95 @@
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B91" s="48" t="s">
+      <c r="B91" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
     </row>
     <row r="92" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="51"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="24"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="51"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="24"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="39" t="s">
+      <c r="C94" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="41"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="44"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="30"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="45"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="47"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="33"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="32"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="48"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="32"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="48"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="30"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="32"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="48"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -4666,13 +4739,13 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="36"/>
     </row>
     <row r="102" spans="2:6" ht="14.25" thickBot="1">
       <c r="B102" s="20" t="s">
@@ -4709,20 +4782,20 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B104" s="36"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="38"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="54"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B105" s="33" t="s">
+      <c r="B105" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="36"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" thickBot="1">
       <c r="B106" s="1" t="s">
@@ -4794,50 +4867,50 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="35"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="36"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="23"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="39"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="24"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="26"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="42"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="24"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="26"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="42"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="24"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="26"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="42"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="27"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="29"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="45"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -4857,95 +4930,95 @@
       <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B120" s="48" t="s">
+      <c r="B120" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="57"/>
     </row>
     <row r="121" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="49" t="s">
+      <c r="C121" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="51"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="24"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="49" t="s">
+      <c r="C122" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="51"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="24"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="39" t="s">
+      <c r="C123" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="40"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="41"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="27"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="42" t="s">
+      <c r="C124" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="44"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="30"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="45"/>
-      <c r="D125" s="46"/>
-      <c r="E125" s="46"/>
-      <c r="F125" s="47"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="33"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="30" t="s">
+      <c r="C126" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="32"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="48"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="30" t="s">
+      <c r="C127" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="32"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="48"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="30"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="32"/>
+      <c r="B128" s="46"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="48"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -4963,29 +5036,29 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B130" s="33" t="s">
+      <c r="B130" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="36"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B131" s="36"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="38"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="54"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="36"/>
     </row>
     <row r="133" spans="2:6" ht="14.25" thickBot="1">
       <c r="B133" s="1" t="s">
@@ -5057,50 +5130,50 @@
       </c>
     </row>
     <row r="138" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="35"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="36"/>
     </row>
     <row r="139" spans="2:6">
-      <c r="B139" s="21" t="s">
+      <c r="B139" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="23"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="39"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="24"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="26"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="42"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="24"/>
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
-      <c r="F141" s="26"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="41"/>
+      <c r="F141" s="42"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="24"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="26"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="41"/>
+      <c r="E142" s="41"/>
+      <c r="F142" s="42"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="27"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="29"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="44"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="45"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -5120,95 +5193,95 @@
       <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="21" customHeight="1" thickBot="1">
-      <c r="B147" s="48" t="s">
+      <c r="B147" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="48"/>
-      <c r="D147" s="48"/>
-      <c r="E147" s="48"/>
-      <c r="F147" s="48"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="57"/>
+      <c r="F147" s="57"/>
     </row>
     <row r="148" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="49" t="s">
+      <c r="C148" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="50"/>
-      <c r="E148" s="50"/>
-      <c r="F148" s="51"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="24"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="49" t="s">
+      <c r="C149" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="50"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="51"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="24"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="39" t="s">
+      <c r="C150" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="40"/>
-      <c r="E150" s="40"/>
-      <c r="F150" s="41"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="27"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="42" t="s">
+      <c r="C151" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="43"/>
-      <c r="E151" s="43"/>
-      <c r="F151" s="44"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="30"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="45"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="47"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="33"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="30" t="s">
+      <c r="C153" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="32"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="48"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="30" t="s">
+      <c r="C154" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="32"/>
+      <c r="D154" s="47"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="48"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="30"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="32"/>
+      <c r="B155" s="46"/>
+      <c r="C155" s="47"/>
+      <c r="D155" s="47"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="48"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -5226,29 +5299,29 @@
       </c>
     </row>
     <row r="157" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="34"/>
-      <c r="D157" s="34"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="35"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="35"/>
+      <c r="F157" s="36"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B158" s="36"/>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="38"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="53"/>
+      <c r="F158" s="54"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B159" s="33" t="s">
+      <c r="B159" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="35"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="36"/>
     </row>
     <row r="160" spans="2:6" ht="14.25" thickBot="1">
       <c r="B160" s="1" t="s">
@@ -5320,980 +5393,1144 @@
       </c>
     </row>
     <row r="165" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B165" s="33" t="s">
+      <c r="B165" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="34"/>
-      <c r="D165" s="34"/>
-      <c r="E165" s="34"/>
-      <c r="F165" s="35"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="36"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="21" t="s">
+      <c r="B166" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="23"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="38"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="39"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="24"/>
-      <c r="C167" s="25"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="25"/>
-      <c r="F167" s="26"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="41"/>
+      <c r="E167" s="41"/>
+      <c r="F167" s="42"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="24"/>
-      <c r="C168" s="25"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="25"/>
-      <c r="F168" s="26"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="42"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="24"/>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="25"/>
-      <c r="F169" s="26"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="41"/>
+      <c r="F169" s="42"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="27"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="29"/>
-    </row>
-    <row r="171" spans="2:6" ht="90" customHeight="1">
-      <c r="B171" s="15"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-    </row>
-    <row r="172" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B172" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C172" s="59"/>
-      <c r="D172" s="59"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
-    </row>
-    <row r="173" spans="2:6" ht="21" thickBot="1">
-      <c r="B173" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C173" s="48"/>
-      <c r="D173" s="48"/>
-      <c r="E173" s="48"/>
-      <c r="F173" s="48"/>
-    </row>
-    <row r="174" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B170" s="43"/>
+      <c r="C170" s="44"/>
+      <c r="D170" s="44"/>
+      <c r="E170" s="44"/>
+      <c r="F170" s="45"/>
+    </row>
+    <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+    </row>
+    <row r="172" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B172" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C172" s="57"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="57"/>
+      <c r="F172" s="57"/>
+    </row>
+    <row r="173" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="24"/>
+    </row>
+    <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D174" s="50"/>
-      <c r="E174" s="50"/>
-      <c r="F174" s="51"/>
+        <v>50</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="24"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B175" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C175" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D175" s="50"/>
-      <c r="E175" s="50"/>
-      <c r="F175" s="51"/>
-    </row>
-    <row r="176" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B176" s="2" t="s">
+      <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C176" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" s="40"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="41"/>
-    </row>
-    <row r="177" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B177" s="2" t="s">
+      <c r="C175" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="27"/>
+    </row>
+    <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C177" s="42" t="s">
+      <c r="C176" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D177" s="43"/>
-      <c r="E177" s="43"/>
-      <c r="F177" s="44"/>
-    </row>
-    <row r="178" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B178" s="2" t="s">
+      <c r="D176" s="29"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="30"/>
+    </row>
+    <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C178" s="45"/>
-      <c r="D178" s="46"/>
-      <c r="E178" s="46"/>
-      <c r="F178" s="47"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="33"/>
+    </row>
+    <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B178" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D178" s="47"/>
+      <c r="E178" s="47"/>
+      <c r="F178" s="48"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B179" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C179" s="30" t="s">
+      <c r="B179" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="31"/>
-      <c r="E179" s="31"/>
-      <c r="F179" s="32"/>
-    </row>
-    <row r="180" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B180" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="31"/>
-      <c r="E180" s="31"/>
-      <c r="F180" s="32"/>
-    </row>
-    <row r="181" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B181" s="30"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="31"/>
-      <c r="F181" s="32"/>
-    </row>
-    <row r="182" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B182" s="2" t="s">
+      <c r="D179" s="47"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="48"/>
+    </row>
+    <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B180" s="46"/>
+      <c r="C180" s="47"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="48"/>
+    </row>
+    <row r="181" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B181" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C181" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3" t="s">
+      <c r="D181" s="9"/>
+      <c r="E181" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="F181" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B183" s="33" t="s">
+    <row r="182" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B182" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C183" s="34"/>
-      <c r="D183" s="34"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="35"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="35"/>
+      <c r="F182" s="36"/>
+    </row>
+    <row r="183" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B183" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F183" s="9"/>
     </row>
     <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F184" s="3"/>
-    </row>
-    <row r="185" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B185" s="52"/>
-      <c r="C185" s="53"/>
-      <c r="D185" s="53"/>
-      <c r="E185" s="53"/>
-      <c r="F185" s="54"/>
-    </row>
-    <row r="186" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B186" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186" s="34"/>
-      <c r="D186" s="34"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="35"/>
+      <c r="B184" s="52"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="53"/>
+      <c r="E184" s="53"/>
+      <c r="F184" s="54"/>
+    </row>
+    <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B185" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C185" s="35"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="35"/>
+      <c r="F185" s="36"/>
+    </row>
+    <row r="186" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B186" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
     </row>
     <row r="187" spans="2:6" ht="14.25" thickBot="1">
       <c r="B187" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
     </row>
     <row r="188" spans="2:6" ht="14.25" thickBot="1">
       <c r="B188" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
+      <c r="F188" s="9"/>
     </row>
     <row r="189" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B189" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E189" s="4"/>
+      <c r="B189" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E189" s="11"/>
       <c r="F189" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="2:6" ht="14.25" thickBot="1">
       <c r="B190" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E190" s="11"/>
-      <c r="F190" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B191" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" s="11"/>
-      <c r="F191" s="4"/>
-    </row>
-    <row r="192" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B192" s="33" t="s">
+      <c r="F190" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B191" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C192" s="34"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="35"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="35"/>
+      <c r="F191" s="36"/>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C192" s="38"/>
+      <c r="D192" s="38"/>
+      <c r="E192" s="38"/>
+      <c r="F192" s="39"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="23"/>
+      <c r="B193" s="40"/>
+      <c r="C193" s="41"/>
+      <c r="D193" s="41"/>
+      <c r="E193" s="41"/>
+      <c r="F193" s="42"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="24"/>
-      <c r="C194" s="25"/>
-      <c r="D194" s="25"/>
-      <c r="E194" s="25"/>
-      <c r="F194" s="26"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="41"/>
+      <c r="D194" s="41"/>
+      <c r="E194" s="41"/>
+      <c r="F194" s="42"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="24"/>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25"/>
-      <c r="F195" s="26"/>
-    </row>
-    <row r="196" spans="2:6">
-      <c r="B196" s="24"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="25"/>
-      <c r="E196" s="25"/>
-      <c r="F196" s="26"/>
-    </row>
-    <row r="197" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B197" s="27"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-      <c r="E197" s="28"/>
-      <c r="F197" s="29"/>
-    </row>
-    <row r="198" spans="2:6" s="56" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B195" s="40"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="41"/>
+      <c r="E195" s="41"/>
+      <c r="F195" s="42"/>
+    </row>
+    <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B196" s="43"/>
+      <c r="C196" s="44"/>
+      <c r="D196" s="44"/>
+      <c r="E196" s="44"/>
+      <c r="F196" s="45"/>
+    </row>
+    <row r="197" spans="2:6" ht="90" customHeight="1">
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+    </row>
+    <row r="198" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B198" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" s="55"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+    </row>
     <row r="199" spans="2:6" ht="21" thickBot="1">
-      <c r="B199" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C199" s="48"/>
-      <c r="D199" s="48"/>
-      <c r="E199" s="48"/>
-      <c r="F199" s="48"/>
+      <c r="B199" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199" s="57"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="57"/>
+      <c r="F199" s="57"/>
     </row>
     <row r="200" spans="2:6" ht="13.5" thickBot="1">
       <c r="B200" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C200" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D200" s="50"/>
-      <c r="E200" s="50"/>
-      <c r="F200" s="51"/>
+      <c r="C200" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="24"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B201" s="12" t="s">
+      <c r="B201" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C201" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D201" s="50"/>
-      <c r="E201" s="50"/>
-      <c r="F201" s="51"/>
+      <c r="C201" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="24"/>
     </row>
     <row r="202" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C202" s="39" t="s">
+      <c r="C202" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D202" s="40"/>
-      <c r="E202" s="40"/>
-      <c r="F202" s="41"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
+      <c r="F202" s="27"/>
     </row>
     <row r="203" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C203" s="42" t="s">
+      <c r="C203" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D203" s="43"/>
-      <c r="E203" s="43"/>
-      <c r="F203" s="44"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29"/>
+      <c r="F203" s="30"/>
     </row>
     <row r="204" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C204" s="45"/>
-      <c r="D204" s="46"/>
-      <c r="E204" s="46"/>
-      <c r="F204" s="47"/>
+      <c r="C204" s="31"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="33"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="31"/>
-      <c r="E205" s="31"/>
-      <c r="F205" s="32"/>
+      <c r="D205" s="47"/>
+      <c r="E205" s="47"/>
+      <c r="F205" s="48"/>
     </row>
     <row r="206" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C206" s="30" t="s">
+      <c r="C206" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D206" s="31"/>
-      <c r="E206" s="31"/>
-      <c r="F206" s="32"/>
+      <c r="D206" s="47"/>
+      <c r="E206" s="47"/>
+      <c r="F206" s="48"/>
     </row>
     <row r="207" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B207" s="30"/>
-      <c r="C207" s="31"/>
-      <c r="D207" s="31"/>
-      <c r="E207" s="31"/>
-      <c r="F207" s="32"/>
+      <c r="B207" s="46"/>
+      <c r="C207" s="47"/>
+      <c r="D207" s="47"/>
+      <c r="E207" s="47"/>
+      <c r="F207" s="48"/>
     </row>
     <row r="208" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9" t="s">
+      <c r="D208" s="3"/>
+      <c r="E208" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F208" s="9" t="s">
+      <c r="F208" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="209" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B209" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C209" s="34"/>
-      <c r="D209" s="34"/>
-      <c r="E209" s="34"/>
-      <c r="F209" s="35"/>
-    </row>
-    <row r="210" spans="2:6" ht="27.75" thickBot="1">
+      <c r="B209" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="35"/>
+      <c r="D209" s="35"/>
+      <c r="E209" s="35"/>
+      <c r="F209" s="36"/>
+    </row>
+    <row r="210" spans="2:6" ht="14.25" thickBot="1">
       <c r="B210" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F210" s="9"/>
+      <c r="F210" s="3"/>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="10"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="9"/>
-    </row>
-    <row r="212" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B212" s="52"/>
-      <c r="C212" s="53"/>
-      <c r="D212" s="53"/>
-      <c r="E212" s="53"/>
-      <c r="F212" s="54"/>
-    </row>
-    <row r="213" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B213" s="33" t="s">
+      <c r="B211" s="49"/>
+      <c r="C211" s="50"/>
+      <c r="D211" s="50"/>
+      <c r="E211" s="50"/>
+      <c r="F211" s="51"/>
+    </row>
+    <row r="212" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B212" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C213" s="34"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
-      <c r="F213" s="35"/>
+      <c r="C212" s="35"/>
+      <c r="D212" s="35"/>
+      <c r="E212" s="35"/>
+      <c r="F212" s="36"/>
+    </row>
+    <row r="213" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B213" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
     </row>
     <row r="214" spans="2:6" ht="14.25" thickBot="1">
       <c r="B214" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
     <row r="215" spans="2:6" ht="14.25" thickBot="1">
       <c r="B215" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
+      <c r="F215" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="216" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B216" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E216" s="4"/>
+      <c r="B216" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E216" s="11"/>
       <c r="F216" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="2:6" ht="14.25" thickBot="1">
       <c r="B217" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E217" s="11"/>
-      <c r="F217" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B218" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E218" s="11"/>
-      <c r="F218" s="4"/>
-    </row>
-    <row r="219" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B219" s="33" t="s">
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B218" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="35"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="35"/>
+      <c r="E218" s="35"/>
+      <c r="F218" s="36"/>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="B219" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C219" s="38"/>
+      <c r="D219" s="38"/>
+      <c r="E219" s="38"/>
+      <c r="F219" s="39"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C220" s="22"/>
-      <c r="D220" s="22"/>
-      <c r="E220" s="22"/>
-      <c r="F220" s="23"/>
+      <c r="B220" s="40"/>
+      <c r="C220" s="41"/>
+      <c r="D220" s="41"/>
+      <c r="E220" s="41"/>
+      <c r="F220" s="42"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="24"/>
-      <c r="C221" s="25"/>
-      <c r="D221" s="25"/>
-      <c r="E221" s="25"/>
-      <c r="F221" s="26"/>
+      <c r="B221" s="40"/>
+      <c r="C221" s="41"/>
+      <c r="D221" s="41"/>
+      <c r="E221" s="41"/>
+      <c r="F221" s="42"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="24"/>
-      <c r="C222" s="25"/>
-      <c r="D222" s="25"/>
-      <c r="E222" s="25"/>
-      <c r="F222" s="26"/>
-    </row>
-    <row r="223" spans="2:6">
-      <c r="B223" s="24"/>
-      <c r="C223" s="25"/>
-      <c r="D223" s="25"/>
-      <c r="E223" s="25"/>
-      <c r="F223" s="26"/>
-    </row>
-    <row r="224" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B224" s="27"/>
-      <c r="C224" s="28"/>
-      <c r="D224" s="28"/>
-      <c r="E224" s="28"/>
-      <c r="F224" s="29"/>
-    </row>
-    <row r="225" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
-    <row r="226" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="227" spans="2:6" ht="21" thickBot="1">
-      <c r="B227" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C227" s="48"/>
-      <c r="D227" s="48"/>
-      <c r="E227" s="48"/>
-      <c r="F227" s="48"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="41"/>
+      <c r="D222" s="41"/>
+      <c r="E222" s="41"/>
+      <c r="F222" s="42"/>
+    </row>
+    <row r="223" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B223" s="43"/>
+      <c r="C223" s="44"/>
+      <c r="D223" s="44"/>
+      <c r="E223" s="44"/>
+      <c r="F223" s="45"/>
+    </row>
+    <row r="224" spans="2:6" s="59" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="225" spans="2:6" ht="21" thickBot="1">
+      <c r="B225" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C225" s="57"/>
+      <c r="D225" s="57"/>
+      <c r="E225" s="57"/>
+      <c r="F225" s="57"/>
+    </row>
+    <row r="226" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B226" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D226" s="23"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="24"/>
+    </row>
+    <row r="227" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B227" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D227" s="23"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="24"/>
     </row>
     <row r="228" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B228" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C228" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D228" s="50"/>
-      <c r="E228" s="50"/>
-      <c r="F228" s="51"/>
-    </row>
-    <row r="229" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B229" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C229" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D229" s="50"/>
-      <c r="E229" s="50"/>
-      <c r="F229" s="51"/>
-    </row>
-    <row r="230" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B228" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C228" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
+      <c r="F228" s="27"/>
+    </row>
+    <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B229" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="29"/>
+      <c r="E229" s="29"/>
+      <c r="F229" s="30"/>
+    </row>
+    <row r="230" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B230" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C230" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D230" s="40"/>
-      <c r="E230" s="40"/>
-      <c r="F230" s="41"/>
-    </row>
-    <row r="231" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="C230" s="31"/>
+      <c r="D230" s="32"/>
+      <c r="E230" s="32"/>
+      <c r="F230" s="33"/>
+    </row>
+    <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B231" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C231" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D231" s="43"/>
-      <c r="E231" s="43"/>
-      <c r="F231" s="44"/>
-    </row>
-    <row r="232" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+        <v>17</v>
+      </c>
+      <c r="C231" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" s="47"/>
+      <c r="E231" s="47"/>
+      <c r="F231" s="48"/>
+    </row>
+    <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B232" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C232" s="45"/>
-      <c r="D232" s="46"/>
-      <c r="E232" s="46"/>
-      <c r="F232" s="47"/>
-    </row>
-    <row r="233" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B233" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C233" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D233" s="31"/>
-      <c r="E233" s="31"/>
-      <c r="F233" s="32"/>
-    </row>
-    <row r="234" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="D232" s="47"/>
+      <c r="E232" s="47"/>
+      <c r="F232" s="48"/>
+    </row>
+    <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B233" s="46"/>
+      <c r="C233" s="47"/>
+      <c r="D233" s="47"/>
+      <c r="E233" s="47"/>
+      <c r="F233" s="48"/>
+    </row>
+    <row r="234" spans="2:6" ht="13.5" thickBot="1">
       <c r="B234" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C234" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D234" s="31"/>
-      <c r="E234" s="31"/>
-      <c r="F234" s="32"/>
-    </row>
-    <row r="235" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B235" s="30"/>
-      <c r="C235" s="31"/>
-      <c r="D235" s="31"/>
-      <c r="E235" s="31"/>
-      <c r="F235" s="32"/>
-    </row>
-    <row r="236" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B236" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="C234" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B235" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C235" s="35"/>
+      <c r="D235" s="35"/>
+      <c r="E235" s="35"/>
+      <c r="F235" s="36"/>
+    </row>
+    <row r="236" spans="2:6" ht="27.75" thickBot="1">
+      <c r="B236" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C236" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F236" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="237" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B237" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C237" s="34"/>
-      <c r="D237" s="34"/>
-      <c r="E237" s="34"/>
-      <c r="F237" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F236" s="9"/>
+    </row>
+    <row r="237" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B237" s="10"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="9"/>
     </row>
     <row r="238" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B238" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F238" s="9"/>
-    </row>
-    <row r="239" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B239" s="52"/>
-      <c r="C239" s="53"/>
-      <c r="D239" s="53"/>
-      <c r="E239" s="53"/>
-      <c r="F239" s="54"/>
-    </row>
-    <row r="240" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B240" s="33" t="s">
+      <c r="B238" s="49"/>
+      <c r="C238" s="50"/>
+      <c r="D238" s="50"/>
+      <c r="E238" s="50"/>
+      <c r="F238" s="51"/>
+    </row>
+    <row r="239" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B239" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C240" s="34"/>
-      <c r="D240" s="34"/>
-      <c r="E240" s="34"/>
-      <c r="F240" s="35"/>
+      <c r="C239" s="35"/>
+      <c r="D239" s="35"/>
+      <c r="E239" s="35"/>
+      <c r="F239" s="36"/>
+    </row>
+    <row r="240" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B240" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
     </row>
     <row r="241" spans="2:6" ht="14.25" thickBot="1">
       <c r="B241" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
     <row r="242" spans="2:6" ht="14.25" thickBot="1">
       <c r="B242" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E242" s="4"/>
-      <c r="F242" s="4"/>
+      <c r="F242" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E243" s="4"/>
+      <c r="B243" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E243" s="11"/>
       <c r="F243" s="9" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="244" spans="2:6" ht="14.25" thickBot="1">
       <c r="B244" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E244" s="11"/>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B245" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" s="35"/>
+      <c r="D245" s="35"/>
+      <c r="E245" s="35"/>
+      <c r="F245" s="36"/>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C246" s="38"/>
+      <c r="D246" s="38"/>
+      <c r="E246" s="38"/>
+      <c r="F246" s="39"/>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" s="40"/>
+      <c r="C247" s="41"/>
+      <c r="D247" s="41"/>
+      <c r="E247" s="41"/>
+      <c r="F247" s="42"/>
+    </row>
+    <row r="248" spans="2:6">
+      <c r="B248" s="40"/>
+      <c r="C248" s="41"/>
+      <c r="D248" s="41"/>
+      <c r="E248" s="41"/>
+      <c r="F248" s="42"/>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="B249" s="40"/>
+      <c r="C249" s="41"/>
+      <c r="D249" s="41"/>
+      <c r="E249" s="41"/>
+      <c r="F249" s="42"/>
+    </row>
+    <row r="250" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B250" s="43"/>
+      <c r="C250" s="44"/>
+      <c r="D250" s="44"/>
+      <c r="E250" s="44"/>
+      <c r="F250" s="45"/>
+    </row>
+    <row r="251" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
+    <row r="252" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="253" spans="2:6" ht="21" thickBot="1">
+      <c r="B253" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C253" s="57"/>
+      <c r="D253" s="57"/>
+      <c r="E253" s="57"/>
+      <c r="F253" s="57"/>
+    </row>
+    <row r="254" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B254" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D254" s="23"/>
+      <c r="E254" s="23"/>
+      <c r="F254" s="24"/>
+    </row>
+    <row r="255" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B255" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D255" s="23"/>
+      <c r="E255" s="23"/>
+      <c r="F255" s="24"/>
+    </row>
+    <row r="256" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B256" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D256" s="26"/>
+      <c r="E256" s="26"/>
+      <c r="F256" s="27"/>
+    </row>
+    <row r="257" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B257" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" s="29"/>
+      <c r="E257" s="29"/>
+      <c r="F257" s="30"/>
+    </row>
+    <row r="258" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B258" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C258" s="31"/>
+      <c r="D258" s="32"/>
+      <c r="E258" s="32"/>
+      <c r="F258" s="33"/>
+    </row>
+    <row r="259" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B259" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" s="47"/>
+      <c r="E259" s="47"/>
+      <c r="F259" s="48"/>
+    </row>
+    <row r="260" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B260" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" s="47"/>
+      <c r="E260" s="47"/>
+      <c r="F260" s="48"/>
+    </row>
+    <row r="261" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B261" s="46"/>
+      <c r="C261" s="47"/>
+      <c r="D261" s="47"/>
+      <c r="E261" s="47"/>
+      <c r="F261" s="48"/>
+    </row>
+    <row r="262" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B262" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B263" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" s="35"/>
+      <c r="D263" s="35"/>
+      <c r="E263" s="35"/>
+      <c r="F263" s="36"/>
+    </row>
+    <row r="264" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B264" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F264" s="9"/>
+    </row>
+    <row r="265" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B265" s="49"/>
+      <c r="C265" s="50"/>
+      <c r="D265" s="50"/>
+      <c r="E265" s="50"/>
+      <c r="F265" s="51"/>
+    </row>
+    <row r="266" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B266" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" s="35"/>
+      <c r="D266" s="35"/>
+      <c r="E266" s="35"/>
+      <c r="F266" s="36"/>
+    </row>
+    <row r="267" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B267" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
+    </row>
+    <row r="268" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B269" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E269" s="4"/>
+      <c r="F269" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B270" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C270" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D244" s="8" t="s">
+      <c r="D270" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E244" s="11"/>
-      <c r="F244" s="9" t="s">
+      <c r="E270" s="11"/>
+      <c r="F270" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="245" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B245" s="10" t="s">
+    <row r="271" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B271" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C245" s="8" t="s">
+      <c r="C271" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D245" s="8" t="s">
+      <c r="D271" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E245" s="11"/>
-      <c r="F245" s="4"/>
-    </row>
-    <row r="246" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B246" s="33" t="s">
+      <c r="E271" s="11"/>
+      <c r="F271" s="4"/>
+    </row>
+    <row r="272" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B272" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C246" s="34"/>
-      <c r="D246" s="34"/>
-      <c r="E246" s="34"/>
-      <c r="F246" s="35"/>
-    </row>
-    <row r="247" spans="2:6">
-      <c r="B247" s="55" t="s">
+      <c r="C272" s="35"/>
+      <c r="D272" s="35"/>
+      <c r="E272" s="35"/>
+      <c r="F272" s="36"/>
+    </row>
+    <row r="273" spans="2:6">
+      <c r="B273" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C247" s="22"/>
-      <c r="D247" s="22"/>
-      <c r="E247" s="22"/>
-      <c r="F247" s="23"/>
-    </row>
-    <row r="248" spans="2:6">
-      <c r="B248" s="24"/>
-      <c r="C248" s="25"/>
-      <c r="D248" s="25"/>
-      <c r="E248" s="25"/>
-      <c r="F248" s="26"/>
-    </row>
-    <row r="249" spans="2:6">
-      <c r="B249" s="24"/>
-      <c r="C249" s="25"/>
-      <c r="D249" s="25"/>
-      <c r="E249" s="25"/>
-      <c r="F249" s="26"/>
-    </row>
-    <row r="250" spans="2:6">
-      <c r="B250" s="24"/>
-      <c r="C250" s="25"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="25"/>
-      <c r="F250" s="26"/>
-    </row>
-    <row r="251" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B251" s="27"/>
-      <c r="C251" s="28"/>
-      <c r="D251" s="28"/>
-      <c r="E251" s="28"/>
-      <c r="F251" s="29"/>
+      <c r="C273" s="38"/>
+      <c r="D273" s="38"/>
+      <c r="E273" s="38"/>
+      <c r="F273" s="39"/>
+    </row>
+    <row r="274" spans="2:6">
+      <c r="B274" s="40"/>
+      <c r="C274" s="41"/>
+      <c r="D274" s="41"/>
+      <c r="E274" s="41"/>
+      <c r="F274" s="42"/>
+    </row>
+    <row r="275" spans="2:6">
+      <c r="B275" s="40"/>
+      <c r="C275" s="41"/>
+      <c r="D275" s="41"/>
+      <c r="E275" s="41"/>
+      <c r="F275" s="42"/>
+    </row>
+    <row r="276" spans="2:6">
+      <c r="B276" s="40"/>
+      <c r="C276" s="41"/>
+      <c r="D276" s="41"/>
+      <c r="E276" s="41"/>
+      <c r="F276" s="42"/>
+    </row>
+    <row r="277" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B277" s="43"/>
+      <c r="C277" s="44"/>
+      <c r="D277" s="44"/>
+      <c r="E277" s="44"/>
+      <c r="F277" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="133">
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F224"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="C206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B181:F181"/>
+  <mergeCells count="147">
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:F196"/>
     <mergeCell ref="B172:F172"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="C180:F180"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
     <mergeCell ref="C175:F175"/>
     <mergeCell ref="C176:F176"/>
     <mergeCell ref="C177:F177"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B83:F87"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F251"/>
-    <mergeCell ref="A198:XFD198"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="C233:F233"/>
-    <mergeCell ref="C234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="C228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B193:F197"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F57"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F116"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F143"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="B180:F180"/>
     <mergeCell ref="B128:F128"/>
     <mergeCell ref="B130:F130"/>
     <mergeCell ref="B131:F131"/>
@@ -6309,17 +6546,135 @@
     <mergeCell ref="C152:F152"/>
     <mergeCell ref="C153:F153"/>
     <mergeCell ref="C154:F154"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F57"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F116"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F277"/>
+    <mergeCell ref="A224:XFD224"/>
+    <mergeCell ref="C258:F258"/>
+    <mergeCell ref="C259:F259"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="C254:F254"/>
+    <mergeCell ref="C255:F255"/>
+    <mergeCell ref="C256:F256"/>
+    <mergeCell ref="C257:F257"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B83:F87"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F143"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B246:F250"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B238:F238"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C175" r:id="rId1"/>
+    <hyperlink ref="C201" r:id="rId1"/>
     <hyperlink ref="C62" r:id="rId2"/>
     <hyperlink ref="C63" r:id="rId3"/>
-    <hyperlink ref="C174" r:id="rId4"/>
-    <hyperlink ref="C229" r:id="rId5"/>
-    <hyperlink ref="C228" r:id="rId6"/>
-    <hyperlink ref="C201" r:id="rId7"/>
-    <hyperlink ref="C200" r:id="rId8"/>
+    <hyperlink ref="C200" r:id="rId4"/>
+    <hyperlink ref="C255" r:id="rId5"/>
+    <hyperlink ref="C254" r:id="rId6"/>
+    <hyperlink ref="C227" r:id="rId7"/>
+    <hyperlink ref="C226" r:id="rId8"/>
     <hyperlink ref="C5" r:id="rId9"/>
     <hyperlink ref="C32" r:id="rId10"/>
     <hyperlink ref="C6" r:id="rId11"/>
@@ -6330,9 +6685,11 @@
     <hyperlink ref="C122" r:id="rId16"/>
     <hyperlink ref="C148" r:id="rId17"/>
     <hyperlink ref="C149" r:id="rId18"/>
+    <hyperlink ref="C173" r:id="rId19"/>
+    <hyperlink ref="C174" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId19"/>
-  <drawing r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId21"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/doc/Es搜索api接口_v1.xlsx
+++ b/doc/Es搜索api接口_v1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="167">
   <si>
     <t>服务地址</t>
   </si>
@@ -1755,6 +1755,234 @@
       </rPr>
       <t xml:space="preserve">"]}' http://54.222.222.172:8999/es/search/nlp_cache/clean
 {"costMillisecond":10.0,"costSecond":0.01,"data":"clean graph_state from redis successfully","msg":"sucsess","code":0}
+</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trie</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>树的自动完成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8999/es/search/prefix</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.222.222.172:8999/es/search/prefix</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀单词</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLengthPerType</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个分类返回的最大集合</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为5，返回结果会按照权重取TOPK</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>curl -vg -X POST -d '{"word":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"}' http://54.222.222.172:8999/es/search/prefix
+{
+    "costMillisecond":2,
+    "costSecond":0.002,
+    "data":{
+        "company":[
+            {
+                "id":"57b5637d5f844e410ce7f402",
+                "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恒生电子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "weight":0.1821,
+                "relevantWords":null,
+                "code":"600570_SH_EQ",
+                "simPy":"hsdz"
+            },
+            {
+                "id":"57b5637d5f844e410ce7eef3",
+                "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恒瑞医药</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "weight":0.075,
+                "relevantWords":null,
+                "code":"600276_SH_EQ",
+                "simPy":"hryy"
+            },
+            {
+                "id":"57b5637d5f844e410ce7f132",
+                "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恒信移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>",
+                "weight":0.0429,
+                "relevantWords":null,
+                "code":"300081_SZ_EQ",
+                "simPy":"hxyd"
+            },
+            {
+                "id":"57b5637d5f844e410ce7f403",
+                "name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恒宝股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">",
+                "weight":0.0107,
+                "relevantWords":null,
+                "code":"002104_SZ_EQ",
+                "simPy":"hbgf"
+            }
+        ],
+        "industry":[
+        ],
+        "event":[
+        ],
+        "topic":[
+        ]
+    },
+    "msg":"sucsess",
+    "code":0
+}
 </t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -2249,7 +2477,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2316,6 +2544,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2418,20 +2649,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3730,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F277"/>
+  <dimension ref="B2:F305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B170" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180:F180"/>
+    <sheetView tabSelected="1" topLeftCell="B206" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219:F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3746,22 +3977,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="78" customHeight="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="2:6" ht="21" thickBot="1">
       <c r="B4" s="57" t="s">
@@ -3776,83 +4007,83 @@
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="2:6" ht="13.5" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="2:6" ht="93.75" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" thickBot="1">
       <c r="B13" s="7" t="s">
@@ -3870,13 +4101,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="10" t="s">
@@ -3894,27 +4125,27 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickBot="1">
       <c r="B19" s="1" t="s">
@@ -3988,57 +4219,57 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" spans="2:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
     </row>
     <row r="31" spans="2:6" ht="21" customHeight="1" thickBot="1">
       <c r="B31" s="57" t="s">
@@ -4053,83 +4284,83 @@
       <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" thickBot="1">
       <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
     </row>
     <row r="38" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
     </row>
     <row r="39" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
     </row>
     <row r="40" spans="2:6" ht="13.5" thickBot="1">
       <c r="B40" s="7" t="s">
@@ -4147,13 +4378,13 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" thickBot="1">
       <c r="B42" s="10" t="s">
@@ -4235,73 +4466,73 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="55"/>
     </row>
     <row r="50" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="37"/>
     </row>
     <row r="52" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="40"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="42"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="42"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
     </row>
     <row r="57" spans="2:6" ht="12" customHeight="1" thickBot="1">
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="45"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="46"/>
     </row>
     <row r="58" spans="2:6" ht="20.25" customHeight="1">
       <c r="B58" s="19"/>
@@ -4333,83 +4564,83 @@
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
     </row>
     <row r="63" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" thickBot="1">
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28"/>
     </row>
     <row r="65" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B65" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="31"/>
     </row>
     <row r="66" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="33"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="34"/>
     </row>
     <row r="67" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="49"/>
     </row>
     <row r="68" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B69" s="46"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="48"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="49"/>
     </row>
     <row r="70" spans="2:6" ht="13.5" thickBot="1">
       <c r="B70" s="7" t="s">
@@ -4427,13 +4658,13 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="37"/>
     </row>
     <row r="72" spans="2:6" ht="14.25" thickBot="1">
       <c r="B72" s="10" t="s">
@@ -4483,20 +4714,20 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B75" s="52"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="54"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="55"/>
     </row>
     <row r="76" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="37"/>
     </row>
     <row r="77" spans="2:6" ht="14.25" thickBot="1">
       <c r="B77" s="1" t="s">
@@ -4570,50 +4801,50 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="37"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="58" t="s">
+      <c r="B83" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="40"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="40"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="42"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="43"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="40"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="42"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="43"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="40"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="42"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="43"/>
     </row>
     <row r="87" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B87" s="43"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="45"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="46"/>
     </row>
     <row r="88" spans="2:6" ht="20.25" customHeight="1">
       <c r="B88" s="19"/>
@@ -4645,83 +4876,83 @@
       <c r="B92" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="25"/>
     </row>
     <row r="93" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B93" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="25"/>
     </row>
     <row r="94" spans="2:6" ht="13.5" thickBot="1">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="28"/>
     </row>
     <row r="95" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="31"/>
     </row>
     <row r="96" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="33"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="34"/>
     </row>
     <row r="97" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="46" t="s">
+      <c r="C97" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="49"/>
     </row>
     <row r="98" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B98" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="46" t="s">
+      <c r="C98" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="49"/>
     </row>
     <row r="99" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B99" s="46"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="48"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="49"/>
     </row>
     <row r="100" spans="2:6" ht="13.5" thickBot="1">
       <c r="B100" s="7" t="s">
@@ -4739,13 +4970,13 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="37"/>
     </row>
     <row r="102" spans="2:6" ht="14.25" thickBot="1">
       <c r="B102" s="20" t="s">
@@ -4782,20 +5013,20 @@
       </c>
     </row>
     <row r="104" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B104" s="52"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="54"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="55"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="37"/>
     </row>
     <row r="106" spans="2:6" ht="14.25" thickBot="1">
       <c r="B106" s="1" t="s">
@@ -4867,50 +5098,50 @@
       </c>
     </row>
     <row r="111" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="36"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="37"/>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="40"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="40"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="42"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="43"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="40"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="42"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="43"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="40"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="42"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="43"/>
     </row>
     <row r="116" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B116" s="43"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="45"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="46"/>
     </row>
     <row r="117" spans="2:6" ht="20.25" customHeight="1">
       <c r="B117" s="19"/>
@@ -4942,83 +5173,83 @@
       <c r="B121" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="25"/>
     </row>
     <row r="122" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="25"/>
     </row>
     <row r="123" spans="2:6" ht="13.5" thickBot="1">
       <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C123" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="28"/>
     </row>
     <row r="124" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="31"/>
     </row>
     <row r="125" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="31"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="33"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="34"/>
     </row>
     <row r="126" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="46" t="s">
+      <c r="C126" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="48"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="49"/>
     </row>
     <row r="127" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="46" t="s">
+      <c r="C127" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="48"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="49"/>
     </row>
     <row r="128" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B128" s="46"/>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="48"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="49"/>
     </row>
     <row r="129" spans="2:6" ht="13.5" thickBot="1">
       <c r="B129" s="7" t="s">
@@ -5036,29 +5267,29 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="36"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="37"/>
     </row>
     <row r="131" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B131" s="52"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="53"/>
-      <c r="E131" s="53"/>
-      <c r="F131" s="54"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="54"/>
+      <c r="F131" s="55"/>
     </row>
     <row r="132" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="37"/>
     </row>
     <row r="133" spans="2:6" ht="14.25" thickBot="1">
       <c r="B133" s="1" t="s">
@@ -5130,50 +5361,50 @@
       </c>
     </row>
     <row r="138" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="37"/>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="40"/>
     </row>
     <row r="140" spans="2:6">
-      <c r="B140" s="40"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="41"/>
-      <c r="E140" s="41"/>
-      <c r="F140" s="42"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="42"/>
+      <c r="E140" s="42"/>
+      <c r="F140" s="43"/>
     </row>
     <row r="141" spans="2:6">
-      <c r="B141" s="40"/>
-      <c r="C141" s="41"/>
-      <c r="D141" s="41"/>
-      <c r="E141" s="41"/>
-      <c r="F141" s="42"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="42"/>
+      <c r="E141" s="42"/>
+      <c r="F141" s="43"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="40"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="41"/>
-      <c r="E142" s="41"/>
-      <c r="F142" s="42"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="42"/>
+      <c r="E142" s="42"/>
+      <c r="F142" s="43"/>
     </row>
     <row r="143" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B143" s="43"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="44"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="45"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="46"/>
     </row>
     <row r="144" spans="2:6" ht="20.25" customHeight="1">
       <c r="B144" s="19"/>
@@ -5205,83 +5436,83 @@
       <c r="B148" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="25"/>
     </row>
     <row r="149" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B149" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="25"/>
     </row>
     <row r="150" spans="2:6" ht="13.5" thickBot="1">
       <c r="B150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C150" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="28"/>
     </row>
     <row r="151" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="C151" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="31"/>
     </row>
     <row r="152" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="31"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="33"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="34"/>
     </row>
     <row r="153" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B153" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="46" t="s">
+      <c r="C153" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D153" s="47"/>
-      <c r="E153" s="47"/>
-      <c r="F153" s="48"/>
+      <c r="D153" s="48"/>
+      <c r="E153" s="48"/>
+      <c r="F153" s="49"/>
     </row>
     <row r="154" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="46" t="s">
+      <c r="C154" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="47"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="48"/>
+      <c r="D154" s="48"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="49"/>
     </row>
     <row r="155" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B155" s="46"/>
-      <c r="C155" s="47"/>
-      <c r="D155" s="47"/>
-      <c r="E155" s="47"/>
-      <c r="F155" s="48"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="48"/>
+      <c r="E155" s="48"/>
+      <c r="F155" s="49"/>
     </row>
     <row r="156" spans="2:6" ht="13.5" thickBot="1">
       <c r="B156" s="7" t="s">
@@ -5299,29 +5530,29 @@
       </c>
     </row>
     <row r="157" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="35"/>
-      <c r="D157" s="35"/>
-      <c r="E157" s="35"/>
-      <c r="F157" s="36"/>
+      <c r="C157" s="36"/>
+      <c r="D157" s="36"/>
+      <c r="E157" s="36"/>
+      <c r="F157" s="37"/>
     </row>
     <row r="158" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B158" s="52"/>
-      <c r="C158" s="53"/>
-      <c r="D158" s="53"/>
-      <c r="E158" s="53"/>
-      <c r="F158" s="54"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="54"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="54"/>
+      <c r="F158" s="55"/>
     </row>
     <row r="159" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="36"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="36"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="37"/>
     </row>
     <row r="160" spans="2:6" ht="14.25" thickBot="1">
       <c r="B160" s="1" t="s">
@@ -5393,50 +5624,50 @@
       </c>
     </row>
     <row r="165" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B165" s="34" t="s">
+      <c r="B165" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="35"/>
-      <c r="D165" s="35"/>
-      <c r="E165" s="35"/>
-      <c r="F165" s="36"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="36"/>
+      <c r="F165" s="37"/>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C166" s="38"/>
-      <c r="D166" s="38"/>
-      <c r="E166" s="38"/>
-      <c r="F166" s="39"/>
+      <c r="C166" s="39"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="40"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="40"/>
-      <c r="C167" s="41"/>
-      <c r="D167" s="41"/>
-      <c r="E167" s="41"/>
-      <c r="F167" s="42"/>
+      <c r="B167" s="41"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="43"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="40"/>
-      <c r="C168" s="41"/>
-      <c r="D168" s="41"/>
-      <c r="E168" s="41"/>
-      <c r="F168" s="42"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="43"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="40"/>
-      <c r="C169" s="41"/>
-      <c r="D169" s="41"/>
-      <c r="E169" s="41"/>
-      <c r="F169" s="42"/>
+      <c r="B169" s="41"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="42"/>
+      <c r="E169" s="42"/>
+      <c r="F169" s="43"/>
     </row>
     <row r="170" spans="2:6" ht="39" customHeight="1" thickBot="1">
-      <c r="B170" s="43"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="44"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="45"/>
+      <c r="B170" s="44"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="45"/>
+      <c r="F170" s="46"/>
     </row>
     <row r="171" spans="2:6" ht="39" customHeight="1" thickBot="1">
       <c r="B171" s="21"/>
@@ -5458,83 +5689,83 @@
       <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="22" t="s">
+      <c r="C173" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="F173" s="24"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="25"/>
     </row>
     <row r="174" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B174" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="22" t="s">
+      <c r="C174" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
-      <c r="F174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="25"/>
     </row>
     <row r="175" spans="2:6" ht="13.5" thickBot="1">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="25" t="s">
+      <c r="C175" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="27"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B176" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="28" t="s">
+      <c r="C176" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="30"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="31"/>
     </row>
     <row r="177" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="31"/>
-      <c r="D177" s="32"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="33"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="34"/>
     </row>
     <row r="178" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B178" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="46" t="s">
+      <c r="C178" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D178" s="47"/>
-      <c r="E178" s="47"/>
-      <c r="F178" s="48"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="49"/>
     </row>
     <row r="179" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B179" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="46" t="s">
+      <c r="C179" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="47"/>
-      <c r="E179" s="47"/>
-      <c r="F179" s="48"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="49"/>
     </row>
     <row r="180" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B180" s="46"/>
-      <c r="C180" s="47"/>
-      <c r="D180" s="47"/>
-      <c r="E180" s="47"/>
-      <c r="F180" s="48"/>
+      <c r="B180" s="47"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="49"/>
     </row>
     <row r="181" spans="2:6" ht="13.5" thickBot="1">
       <c r="B181" s="7" t="s">
@@ -5552,13 +5783,13 @@
       </c>
     </row>
     <row r="182" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B182" s="34" t="s">
+      <c r="B182" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="37"/>
     </row>
     <row r="183" spans="2:6" ht="14.25" thickBot="1">
       <c r="B183" s="20" t="s">
@@ -5576,20 +5807,20 @@
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B184" s="52"/>
-      <c r="C184" s="53"/>
-      <c r="D184" s="53"/>
-      <c r="E184" s="53"/>
-      <c r="F184" s="54"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="54"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="54"/>
+      <c r="F184" s="55"/>
     </row>
     <row r="185" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B185" s="34" t="s">
+      <c r="B185" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C185" s="35"/>
-      <c r="D185" s="35"/>
-      <c r="E185" s="35"/>
-      <c r="F185" s="36"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="37"/>
     </row>
     <row r="186" spans="2:6" ht="14.25" thickBot="1">
       <c r="B186" s="1" t="s">
@@ -5661,212 +5892,220 @@
       </c>
     </row>
     <row r="191" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B191" s="34" t="s">
+      <c r="B191" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="36"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="36"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="37"/>
     </row>
     <row r="192" spans="2:6">
       <c r="B192" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="38"/>
-      <c r="D192" s="38"/>
-      <c r="E192" s="38"/>
-      <c r="F192" s="39"/>
+      <c r="C192" s="39"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="39"/>
+      <c r="F192" s="40"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="40"/>
-      <c r="C193" s="41"/>
-      <c r="D193" s="41"/>
-      <c r="E193" s="41"/>
-      <c r="F193" s="42"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="42"/>
+      <c r="E193" s="42"/>
+      <c r="F193" s="43"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="40"/>
-      <c r="C194" s="41"/>
-      <c r="D194" s="41"/>
-      <c r="E194" s="41"/>
-      <c r="F194" s="42"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="42"/>
+      <c r="E194" s="42"/>
+      <c r="F194" s="43"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="40"/>
-      <c r="C195" s="41"/>
-      <c r="D195" s="41"/>
-      <c r="E195" s="41"/>
-      <c r="F195" s="42"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="42"/>
+      <c r="E195" s="42"/>
+      <c r="F195" s="43"/>
     </row>
     <row r="196" spans="2:6" ht="90" customHeight="1" thickBot="1">
-      <c r="B196" s="43"/>
-      <c r="C196" s="44"/>
-      <c r="D196" s="44"/>
-      <c r="E196" s="44"/>
-      <c r="F196" s="45"/>
-    </row>
-    <row r="197" spans="2:6" ht="90" customHeight="1">
-      <c r="B197" s="15"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="15"/>
-      <c r="E197" s="15"/>
-      <c r="F197" s="15"/>
-    </row>
-    <row r="198" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B198" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C198" s="55"/>
-      <c r="D198" s="55"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="55"/>
-    </row>
-    <row r="199" spans="2:6" ht="21" thickBot="1">
-      <c r="B199" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C199" s="57"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="57"/>
-      <c r="F199" s="57"/>
-    </row>
-    <row r="200" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B196" s="44"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="45"/>
+      <c r="E196" s="45"/>
+      <c r="F196" s="46"/>
+    </row>
+    <row r="197" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
+    </row>
+    <row r="198" spans="2:6" ht="21" customHeight="1" thickBot="1">
+      <c r="B198" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C198" s="57"/>
+      <c r="D198" s="57"/>
+      <c r="E198" s="57"/>
+      <c r="F198" s="57"/>
+    </row>
+    <row r="199" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B199" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D199" s="24"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="25"/>
+    </row>
+    <row r="200" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="B200" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="25"/>
     </row>
     <row r="201" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B201" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
-      <c r="F201" s="24"/>
-    </row>
-    <row r="202" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B202" s="2" t="s">
+      <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C202" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-      <c r="F202" s="27"/>
-    </row>
-    <row r="203" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B203" s="2" t="s">
+      <c r="C201" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="28"/>
+    </row>
+    <row r="202" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B202" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C203" s="28" t="s">
+      <c r="C202" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29"/>
-      <c r="F203" s="30"/>
-    </row>
-    <row r="204" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B204" s="2" t="s">
+      <c r="D202" s="30"/>
+      <c r="E202" s="30"/>
+      <c r="F202" s="31"/>
+    </row>
+    <row r="203" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B203" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C204" s="31"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="32"/>
-      <c r="F204" s="33"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="34"/>
+    </row>
+    <row r="204" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B204" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D204" s="48"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="49"/>
     </row>
     <row r="205" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B205" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C205" s="46" t="s">
+      <c r="B205" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D205" s="47"/>
-      <c r="E205" s="47"/>
-      <c r="F205" s="48"/>
-    </row>
-    <row r="206" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B206" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D206" s="47"/>
-      <c r="E206" s="47"/>
-      <c r="F206" s="48"/>
-    </row>
-    <row r="207" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B207" s="46"/>
-      <c r="C207" s="47"/>
-      <c r="D207" s="47"/>
-      <c r="E207" s="47"/>
-      <c r="F207" s="48"/>
-    </row>
-    <row r="208" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B208" s="2" t="s">
+      <c r="D205" s="48"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="49"/>
+    </row>
+    <row r="206" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B206" s="47"/>
+      <c r="C206" s="48"/>
+      <c r="D206" s="48"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="49"/>
+    </row>
+    <row r="207" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B207" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C207" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3" t="s">
+      <c r="D207" s="9"/>
+      <c r="E207" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F208" s="3" t="s">
+      <c r="F207" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B209" s="34" t="s">
+    <row r="208" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B208" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C209" s="35"/>
-      <c r="D209" s="35"/>
-      <c r="E209" s="35"/>
-      <c r="F209" s="36"/>
-    </row>
-    <row r="210" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B210" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F210" s="3"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="36"/>
+      <c r="E208" s="36"/>
+      <c r="F208" s="37"/>
+    </row>
+    <row r="209" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B209" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="9"/>
+    </row>
+    <row r="210" spans="2:6" ht="26.25" thickBot="1">
+      <c r="B210" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="211" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B211" s="49"/>
-      <c r="C211" s="50"/>
-      <c r="D211" s="50"/>
-      <c r="E211" s="50"/>
-      <c r="F211" s="51"/>
-    </row>
-    <row r="212" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B212" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C212" s="35"/>
-      <c r="D212" s="35"/>
-      <c r="E212" s="35"/>
-      <c r="F212" s="36"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="54"/>
+      <c r="D211" s="54"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="55"/>
+    </row>
+    <row r="212" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B212" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C212" s="36"/>
+      <c r="D212" s="36"/>
+      <c r="E212" s="36"/>
+      <c r="F212" s="37"/>
     </row>
     <row r="213" spans="2:6" ht="14.25" thickBot="1">
       <c r="B213" s="1" t="s">
@@ -5889,7 +6128,7 @@
         <v>30</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -5899,15 +6138,13 @@
         <v>28</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E215" s="4"/>
-      <c r="F215" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="F215" s="9"/>
     </row>
     <row r="216" spans="2:6" ht="14.25" thickBot="1">
       <c r="B216" s="10" t="s">
@@ -5921,7 +6158,7 @@
       </c>
       <c r="E216" s="11"/>
       <c r="F216" s="9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217" spans="2:6" ht="14.25" thickBot="1">
@@ -5935,328 +6172,344 @@
         <v>35</v>
       </c>
       <c r="E217" s="11"/>
-      <c r="F217" s="4"/>
-    </row>
-    <row r="218" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B218" s="34" t="s">
+      <c r="F217" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" ht="24" customHeight="1" thickBot="1">
+      <c r="B218" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C218" s="35"/>
-      <c r="D218" s="35"/>
-      <c r="E218" s="35"/>
-      <c r="F218" s="36"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="36"/>
+      <c r="E218" s="36"/>
+      <c r="F218" s="37"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C219" s="38"/>
-      <c r="D219" s="38"/>
-      <c r="E219" s="38"/>
-      <c r="F219" s="39"/>
+      <c r="B219" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C219" s="39"/>
+      <c r="D219" s="39"/>
+      <c r="E219" s="39"/>
+      <c r="F219" s="40"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="40"/>
-      <c r="C220" s="41"/>
-      <c r="D220" s="41"/>
-      <c r="E220" s="41"/>
-      <c r="F220" s="42"/>
+      <c r="B220" s="41"/>
+      <c r="C220" s="42"/>
+      <c r="D220" s="42"/>
+      <c r="E220" s="42"/>
+      <c r="F220" s="43"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="40"/>
-      <c r="C221" s="41"/>
-      <c r="D221" s="41"/>
-      <c r="E221" s="41"/>
-      <c r="F221" s="42"/>
+      <c r="B221" s="41"/>
+      <c r="C221" s="42"/>
+      <c r="D221" s="42"/>
+      <c r="E221" s="42"/>
+      <c r="F221" s="43"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="40"/>
-      <c r="C222" s="41"/>
-      <c r="D222" s="41"/>
-      <c r="E222" s="41"/>
-      <c r="F222" s="42"/>
-    </row>
-    <row r="223" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B223" s="43"/>
-      <c r="C223" s="44"/>
-      <c r="D223" s="44"/>
-      <c r="E223" s="44"/>
-      <c r="F223" s="45"/>
-    </row>
-    <row r="224" spans="2:6" s="59" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="225" spans="2:6" ht="21" thickBot="1">
-      <c r="B225" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C225" s="57"/>
-      <c r="D225" s="57"/>
-      <c r="E225" s="57"/>
-      <c r="F225" s="57"/>
-    </row>
-    <row r="226" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B226" s="12" t="s">
+      <c r="B222" s="41"/>
+      <c r="C222" s="42"/>
+      <c r="D222" s="42"/>
+      <c r="E222" s="42"/>
+      <c r="F222" s="43"/>
+    </row>
+    <row r="223" spans="2:6" ht="90" customHeight="1" thickBot="1">
+      <c r="B223" s="44"/>
+      <c r="C223" s="45"/>
+      <c r="D223" s="45"/>
+      <c r="E223" s="45"/>
+      <c r="F223" s="46"/>
+    </row>
+    <row r="224" spans="2:6" ht="90" customHeight="1">
+      <c r="B224" s="22"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="22"/>
+    </row>
+    <row r="225" spans="2:6" ht="90" customHeight="1">
+      <c r="B225" s="15"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="15"/>
+    </row>
+    <row r="226" spans="2:6" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B226" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C226" s="56"/>
+      <c r="D226" s="56"/>
+      <c r="E226" s="56"/>
+      <c r="F226" s="56"/>
+    </row>
+    <row r="227" spans="2:6" ht="21" thickBot="1">
+      <c r="B227" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227" s="57"/>
+      <c r="D227" s="57"/>
+      <c r="E227" s="57"/>
+      <c r="F227" s="57"/>
+    </row>
+    <row r="228" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B228" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D226" s="23"/>
-      <c r="E226" s="23"/>
-      <c r="F226" s="24"/>
-    </row>
-    <row r="227" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B227" s="12" t="s">
+      <c r="C228" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D228" s="24"/>
+      <c r="E228" s="24"/>
+      <c r="F228" s="25"/>
+    </row>
+    <row r="229" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B229" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C227" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D227" s="23"/>
-      <c r="E227" s="23"/>
-      <c r="F227" s="24"/>
-    </row>
-    <row r="228" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B228" s="7" t="s">
+      <c r="C229" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D229" s="24"/>
+      <c r="E229" s="24"/>
+      <c r="F229" s="25"/>
+    </row>
+    <row r="230" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B230" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C228" s="25" t="s">
+      <c r="C230" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="27"/>
-    </row>
-    <row r="229" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B229" s="7" t="s">
+      <c r="D230" s="27"/>
+      <c r="E230" s="27"/>
+      <c r="F230" s="28"/>
+    </row>
+    <row r="231" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B231" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="28" t="s">
+      <c r="C231" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D229" s="29"/>
-      <c r="E229" s="29"/>
-      <c r="F229" s="30"/>
-    </row>
-    <row r="230" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B230" s="7" t="s">
+      <c r="D231" s="30"/>
+      <c r="E231" s="30"/>
+      <c r="F231" s="31"/>
+    </row>
+    <row r="232" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B232" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C230" s="31"/>
-      <c r="D230" s="32"/>
-      <c r="E230" s="32"/>
-      <c r="F230" s="33"/>
-    </row>
-    <row r="231" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B231" s="7" t="s">
+      <c r="C232" s="32"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="34"/>
+    </row>
+    <row r="233" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B233" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C231" s="46" t="s">
+      <c r="C233" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D231" s="47"/>
-      <c r="E231" s="47"/>
-      <c r="F231" s="48"/>
-    </row>
-    <row r="232" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B232" s="7" t="s">
+      <c r="D233" s="48"/>
+      <c r="E233" s="48"/>
+      <c r="F233" s="49"/>
+    </row>
+    <row r="234" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B234" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="46" t="s">
+      <c r="C234" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="47"/>
-      <c r="E232" s="47"/>
-      <c r="F232" s="48"/>
-    </row>
-    <row r="233" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B233" s="46"/>
-      <c r="C233" s="47"/>
-      <c r="D233" s="47"/>
-      <c r="E233" s="47"/>
-      <c r="F233" s="48"/>
-    </row>
-    <row r="234" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B234" s="7" t="s">
+      <c r="D234" s="48"/>
+      <c r="E234" s="48"/>
+      <c r="F234" s="49"/>
+    </row>
+    <row r="235" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B235" s="47"/>
+      <c r="C235" s="48"/>
+      <c r="D235" s="48"/>
+      <c r="E235" s="48"/>
+      <c r="F235" s="49"/>
+    </row>
+    <row r="236" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B236" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="C236" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9" t="s">
+      <c r="D236" s="3"/>
+      <c r="E236" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F234" s="9" t="s">
+      <c r="F236" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B235" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C235" s="35"/>
-      <c r="D235" s="35"/>
-      <c r="E235" s="35"/>
-      <c r="F235" s="36"/>
-    </row>
-    <row r="236" spans="2:6" ht="27.75" thickBot="1">
-      <c r="B236" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E236" s="6" t="s">
+    <row r="237" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B237" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="36"/>
+      <c r="D237" s="36"/>
+      <c r="E237" s="36"/>
+      <c r="F237" s="37"/>
+    </row>
+    <row r="238" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B238" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E238" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F236" s="9"/>
-    </row>
-    <row r="237" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B237" s="10"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="14"/>
-      <c r="F237" s="9"/>
-    </row>
-    <row r="238" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B238" s="49"/>
-      <c r="C238" s="50"/>
-      <c r="D238" s="50"/>
-      <c r="E238" s="50"/>
-      <c r="F238" s="51"/>
-    </row>
-    <row r="239" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B239" s="34" t="s">
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B239" s="50"/>
+      <c r="C239" s="51"/>
+      <c r="D239" s="51"/>
+      <c r="E239" s="51"/>
+      <c r="F239" s="52"/>
+    </row>
+    <row r="240" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B240" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C239" s="35"/>
-      <c r="D239" s="35"/>
-      <c r="E239" s="35"/>
-      <c r="F239" s="36"/>
-    </row>
-    <row r="240" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B240" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
+      <c r="C240" s="36"/>
+      <c r="D240" s="36"/>
+      <c r="E240" s="36"/>
+      <c r="F240" s="37"/>
     </row>
     <row r="241" spans="2:6" ht="14.25" thickBot="1">
       <c r="B241" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
     <row r="242" spans="2:6" ht="14.25" thickBot="1">
       <c r="B242" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B243" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C243" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E242" s="4"/>
-      <c r="F242" s="9" t="s">
+      <c r="E243" s="4"/>
+      <c r="F243" s="9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="243" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B243" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E243" s="11"/>
-      <c r="F243" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="244" spans="2:6" ht="14.25" thickBot="1">
       <c r="B244" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E244" s="11"/>
+      <c r="F244" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B245" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C245" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D244" s="8" t="s">
+      <c r="D245" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E244" s="11"/>
-      <c r="F244" s="4"/>
-    </row>
-    <row r="245" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B245" s="34" t="s">
+      <c r="E245" s="11"/>
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B246" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C245" s="35"/>
-      <c r="D245" s="35"/>
-      <c r="E245" s="35"/>
-      <c r="F245" s="36"/>
-    </row>
-    <row r="246" spans="2:6">
-      <c r="B246" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C246" s="38"/>
-      <c r="D246" s="38"/>
-      <c r="E246" s="38"/>
-      <c r="F246" s="39"/>
+      <c r="C246" s="36"/>
+      <c r="D246" s="36"/>
+      <c r="E246" s="36"/>
+      <c r="F246" s="37"/>
     </row>
     <row r="247" spans="2:6">
-      <c r="B247" s="40"/>
-      <c r="C247" s="41"/>
-      <c r="D247" s="41"/>
-      <c r="E247" s="41"/>
-      <c r="F247" s="42"/>
+      <c r="B247" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C247" s="39"/>
+      <c r="D247" s="39"/>
+      <c r="E247" s="39"/>
+      <c r="F247" s="40"/>
     </row>
     <row r="248" spans="2:6">
-      <c r="B248" s="40"/>
-      <c r="C248" s="41"/>
-      <c r="D248" s="41"/>
-      <c r="E248" s="41"/>
-      <c r="F248" s="42"/>
+      <c r="B248" s="41"/>
+      <c r="C248" s="42"/>
+      <c r="D248" s="42"/>
+      <c r="E248" s="42"/>
+      <c r="F248" s="43"/>
     </row>
     <row r="249" spans="2:6">
-      <c r="B249" s="40"/>
-      <c r="C249" s="41"/>
-      <c r="D249" s="41"/>
-      <c r="E249" s="41"/>
-      <c r="F249" s="42"/>
-    </row>
-    <row r="250" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B250" s="43"/>
-      <c r="C250" s="44"/>
-      <c r="D250" s="44"/>
-      <c r="E250" s="44"/>
-      <c r="F250" s="45"/>
-    </row>
-    <row r="251" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
-    <row r="252" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+      <c r="B249" s="41"/>
+      <c r="C249" s="42"/>
+      <c r="D249" s="42"/>
+      <c r="E249" s="42"/>
+      <c r="F249" s="43"/>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" s="41"/>
+      <c r="C250" s="42"/>
+      <c r="D250" s="42"/>
+      <c r="E250" s="42"/>
+      <c r="F250" s="43"/>
+    </row>
+    <row r="251" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B251" s="44"/>
+      <c r="C251" s="45"/>
+      <c r="D251" s="45"/>
+      <c r="E251" s="45"/>
+      <c r="F251" s="46"/>
+    </row>
+    <row r="252" spans="2:6" s="61" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="253" spans="2:6" ht="21" thickBot="1">
       <c r="B253" s="57" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C253" s="57"/>
       <c r="D253" s="57"/>
@@ -6267,83 +6520,83 @@
       <c r="B254" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C254" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D254" s="23"/>
-      <c r="E254" s="23"/>
-      <c r="F254" s="24"/>
+      <c r="C254" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D254" s="24"/>
+      <c r="E254" s="24"/>
+      <c r="F254" s="25"/>
     </row>
     <row r="255" spans="2:6" ht="13.5" thickBot="1">
       <c r="B255" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C255" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D255" s="23"/>
-      <c r="E255" s="23"/>
-      <c r="F255" s="24"/>
+      <c r="C255" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D255" s="24"/>
+      <c r="E255" s="24"/>
+      <c r="F255" s="25"/>
     </row>
     <row r="256" spans="2:6" ht="13.5" thickBot="1">
       <c r="B256" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C256" s="25" t="s">
+      <c r="C256" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D256" s="26"/>
-      <c r="E256" s="26"/>
-      <c r="F256" s="27"/>
+      <c r="D256" s="27"/>
+      <c r="E256" s="27"/>
+      <c r="F256" s="28"/>
     </row>
     <row r="257" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="B257" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C257" s="28" t="s">
+      <c r="C257" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D257" s="29"/>
-      <c r="E257" s="29"/>
-      <c r="F257" s="30"/>
+      <c r="D257" s="30"/>
+      <c r="E257" s="30"/>
+      <c r="F257" s="31"/>
     </row>
     <row r="258" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
       <c r="B258" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C258" s="31"/>
-      <c r="D258" s="32"/>
-      <c r="E258" s="32"/>
-      <c r="F258" s="33"/>
+      <c r="C258" s="32"/>
+      <c r="D258" s="33"/>
+      <c r="E258" s="33"/>
+      <c r="F258" s="34"/>
     </row>
     <row r="259" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B259" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C259" s="46" t="s">
+      <c r="C259" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D259" s="47"/>
-      <c r="E259" s="47"/>
-      <c r="F259" s="48"/>
+      <c r="D259" s="48"/>
+      <c r="E259" s="48"/>
+      <c r="F259" s="49"/>
     </row>
     <row r="260" spans="2:6" ht="42" customHeight="1" thickBot="1">
       <c r="B260" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C260" s="46" t="s">
+      <c r="C260" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D260" s="47"/>
-      <c r="E260" s="47"/>
-      <c r="F260" s="48"/>
+      <c r="D260" s="48"/>
+      <c r="E260" s="48"/>
+      <c r="F260" s="49"/>
     </row>
     <row r="261" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B261" s="46"/>
-      <c r="C261" s="47"/>
-      <c r="D261" s="47"/>
-      <c r="E261" s="47"/>
-      <c r="F261" s="48"/>
+      <c r="B261" s="47"/>
+      <c r="C261" s="48"/>
+      <c r="D261" s="48"/>
+      <c r="E261" s="48"/>
+      <c r="F261" s="49"/>
     </row>
     <row r="262" spans="2:6" ht="13.5" thickBot="1">
       <c r="B262" s="7" t="s">
@@ -6361,23 +6614,23 @@
       </c>
     </row>
     <row r="263" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B263" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C263" s="35"/>
-      <c r="D263" s="35"/>
-      <c r="E263" s="35"/>
-      <c r="F263" s="36"/>
-    </row>
-    <row r="264" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B263" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C263" s="36"/>
+      <c r="D263" s="36"/>
+      <c r="E263" s="36"/>
+      <c r="F263" s="37"/>
+    </row>
+    <row r="264" spans="2:6" ht="27.75" thickBot="1">
       <c r="B264" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>18</v>
@@ -6385,138 +6638,422 @@
       <c r="F264" s="9"/>
     </row>
     <row r="265" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B265" s="49"/>
-      <c r="C265" s="50"/>
-      <c r="D265" s="50"/>
-      <c r="E265" s="50"/>
-      <c r="F265" s="51"/>
-    </row>
-    <row r="266" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B266" s="34" t="s">
+      <c r="B265" s="10"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="9"/>
+    </row>
+    <row r="266" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B266" s="50"/>
+      <c r="C266" s="51"/>
+      <c r="D266" s="51"/>
+      <c r="E266" s="51"/>
+      <c r="F266" s="52"/>
+    </row>
+    <row r="267" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B267" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C266" s="35"/>
-      <c r="D266" s="35"/>
-      <c r="E266" s="35"/>
-      <c r="F266" s="36"/>
-    </row>
-    <row r="267" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B267" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D267" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
+      <c r="C267" s="36"/>
+      <c r="D267" s="36"/>
+      <c r="E267" s="36"/>
+      <c r="F267" s="37"/>
     </row>
     <row r="268" spans="2:6" ht="14.25" thickBot="1">
       <c r="B268" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
     </row>
     <row r="269" spans="2:6" ht="14.25" thickBot="1">
       <c r="B269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
+    </row>
+    <row r="270" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B270" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C270" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D269" s="9" t="s">
+      <c r="D270" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E269" s="4"/>
-      <c r="F269" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="270" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B270" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E270" s="11"/>
+      <c r="E270" s="4"/>
       <c r="F270" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="271" spans="2:6" ht="14.25" thickBot="1">
       <c r="B271" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E271" s="11"/>
+      <c r="F271" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B272" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C271" s="8" t="s">
+      <c r="C272" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D271" s="8" t="s">
+      <c r="D272" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E271" s="11"/>
-      <c r="F271" s="4"/>
-    </row>
-    <row r="272" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B272" s="34" t="s">
+      <c r="E272" s="11"/>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B273" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C272" s="35"/>
-      <c r="D272" s="35"/>
-      <c r="E272" s="35"/>
-      <c r="F272" s="36"/>
-    </row>
-    <row r="273" spans="2:6">
-      <c r="B273" s="37" t="s">
+      <c r="C273" s="36"/>
+      <c r="D273" s="36"/>
+      <c r="E273" s="36"/>
+      <c r="F273" s="37"/>
+    </row>
+    <row r="274" spans="2:6">
+      <c r="B274" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C274" s="39"/>
+      <c r="D274" s="39"/>
+      <c r="E274" s="39"/>
+      <c r="F274" s="40"/>
+    </row>
+    <row r="275" spans="2:6">
+      <c r="B275" s="41"/>
+      <c r="C275" s="42"/>
+      <c r="D275" s="42"/>
+      <c r="E275" s="42"/>
+      <c r="F275" s="43"/>
+    </row>
+    <row r="276" spans="2:6">
+      <c r="B276" s="41"/>
+      <c r="C276" s="42"/>
+      <c r="D276" s="42"/>
+      <c r="E276" s="42"/>
+      <c r="F276" s="43"/>
+    </row>
+    <row r="277" spans="2:6">
+      <c r="B277" s="41"/>
+      <c r="C277" s="42"/>
+      <c r="D277" s="42"/>
+      <c r="E277" s="42"/>
+      <c r="F277" s="43"/>
+    </row>
+    <row r="278" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B278" s="44"/>
+      <c r="C278" s="45"/>
+      <c r="D278" s="45"/>
+      <c r="E278" s="45"/>
+      <c r="F278" s="46"/>
+    </row>
+    <row r="279" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1"/>
+    <row r="280" spans="2:6" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1"/>
+    <row r="281" spans="2:6" ht="21" thickBot="1">
+      <c r="B281" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C281" s="57"/>
+      <c r="D281" s="57"/>
+      <c r="E281" s="57"/>
+      <c r="F281" s="57"/>
+    </row>
+    <row r="282" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B282" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D282" s="24"/>
+      <c r="E282" s="24"/>
+      <c r="F282" s="25"/>
+    </row>
+    <row r="283" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B283" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C283" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D283" s="24"/>
+      <c r="E283" s="24"/>
+      <c r="F283" s="25"/>
+    </row>
+    <row r="284" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B284" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D284" s="27"/>
+      <c r="E284" s="27"/>
+      <c r="F284" s="28"/>
+    </row>
+    <row r="285" spans="2:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B285" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" s="30"/>
+      <c r="E285" s="30"/>
+      <c r="F285" s="31"/>
+    </row>
+    <row r="286" spans="2:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B286" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C286" s="32"/>
+      <c r="D286" s="33"/>
+      <c r="E286" s="33"/>
+      <c r="F286" s="34"/>
+    </row>
+    <row r="287" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B287" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D287" s="48"/>
+      <c r="E287" s="48"/>
+      <c r="F287" s="49"/>
+    </row>
+    <row r="288" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B288" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D288" s="48"/>
+      <c r="E288" s="48"/>
+      <c r="F288" s="49"/>
+    </row>
+    <row r="289" spans="2:6" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B289" s="47"/>
+      <c r="C289" s="48"/>
+      <c r="D289" s="48"/>
+      <c r="E289" s="48"/>
+      <c r="F289" s="49"/>
+    </row>
+    <row r="290" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B290" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" s="9"/>
+      <c r="E290" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B291" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" s="36"/>
+      <c r="D291" s="36"/>
+      <c r="E291" s="36"/>
+      <c r="F291" s="37"/>
+    </row>
+    <row r="292" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B292" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F292" s="9"/>
+    </row>
+    <row r="293" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B293" s="50"/>
+      <c r="C293" s="51"/>
+      <c r="D293" s="51"/>
+      <c r="E293" s="51"/>
+      <c r="F293" s="52"/>
+    </row>
+    <row r="294" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B294" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294" s="36"/>
+      <c r="D294" s="36"/>
+      <c r="E294" s="36"/>
+      <c r="F294" s="37"/>
+    </row>
+    <row r="295" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B295" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
+    </row>
+    <row r="296" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
+    </row>
+    <row r="297" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B297" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E297" s="4"/>
+      <c r="F297" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B298" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D298" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E298" s="11"/>
+      <c r="F298" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B299" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D299" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E299" s="11"/>
+      <c r="F299" s="4"/>
+    </row>
+    <row r="300" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B300" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" s="36"/>
+      <c r="D300" s="36"/>
+      <c r="E300" s="36"/>
+      <c r="F300" s="37"/>
+    </row>
+    <row r="301" spans="2:6">
+      <c r="B301" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C273" s="38"/>
-      <c r="D273" s="38"/>
-      <c r="E273" s="38"/>
-      <c r="F273" s="39"/>
-    </row>
-    <row r="274" spans="2:6">
-      <c r="B274" s="40"/>
-      <c r="C274" s="41"/>
-      <c r="D274" s="41"/>
-      <c r="E274" s="41"/>
-      <c r="F274" s="42"/>
-    </row>
-    <row r="275" spans="2:6">
-      <c r="B275" s="40"/>
-      <c r="C275" s="41"/>
-      <c r="D275" s="41"/>
-      <c r="E275" s="41"/>
-      <c r="F275" s="42"/>
-    </row>
-    <row r="276" spans="2:6">
-      <c r="B276" s="40"/>
-      <c r="C276" s="41"/>
-      <c r="D276" s="41"/>
-      <c r="E276" s="41"/>
-      <c r="F276" s="42"/>
-    </row>
-    <row r="277" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
-      <c r="B277" s="43"/>
-      <c r="C277" s="44"/>
-      <c r="D277" s="44"/>
-      <c r="E277" s="44"/>
-      <c r="F277" s="45"/>
+      <c r="C301" s="39"/>
+      <c r="D301" s="39"/>
+      <c r="E301" s="39"/>
+      <c r="F301" s="40"/>
+    </row>
+    <row r="302" spans="2:6">
+      <c r="B302" s="41"/>
+      <c r="C302" s="42"/>
+      <c r="D302" s="42"/>
+      <c r="E302" s="42"/>
+      <c r="F302" s="43"/>
+    </row>
+    <row r="303" spans="2:6">
+      <c r="B303" s="41"/>
+      <c r="C303" s="42"/>
+      <c r="D303" s="42"/>
+      <c r="E303" s="42"/>
+      <c r="F303" s="43"/>
+    </row>
+    <row r="304" spans="2:6">
+      <c r="B304" s="41"/>
+      <c r="C304" s="42"/>
+      <c r="D304" s="42"/>
+      <c r="E304" s="42"/>
+      <c r="F304" s="43"/>
+    </row>
+    <row r="305" spans="2:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B305" s="44"/>
+      <c r="C305" s="45"/>
+      <c r="D305" s="45"/>
+      <c r="E305" s="45"/>
+      <c r="F305" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="161">
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="B206:F206"/>
     <mergeCell ref="B182:F182"/>
     <mergeCell ref="B184:F184"/>
     <mergeCell ref="B185:F185"/>
@@ -6575,30 +7112,30 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F29"/>
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F277"/>
-    <mergeCell ref="A224:XFD224"/>
-    <mergeCell ref="C258:F258"/>
-    <mergeCell ref="C259:F259"/>
-    <mergeCell ref="C260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F305"/>
+    <mergeCell ref="A252:XFD252"/>
+    <mergeCell ref="C286:F286"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="C282:F282"/>
+    <mergeCell ref="C283:F283"/>
+    <mergeCell ref="C284:F284"/>
+    <mergeCell ref="C285:F285"/>
     <mergeCell ref="B253:F253"/>
-    <mergeCell ref="C254:F254"/>
-    <mergeCell ref="C255:F255"/>
-    <mergeCell ref="C256:F256"/>
-    <mergeCell ref="C257:F257"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B219:F223"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B247:F251"/>
     <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B239:F239"/>
     <mergeCell ref="B83:F87"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="B237:F237"/>
     <mergeCell ref="B91:F91"/>
     <mergeCell ref="C92:F92"/>
     <mergeCell ref="C93:F93"/>
@@ -6633,48 +7170,48 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B75:F75"/>
     <mergeCell ref="B76:F76"/>
-    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C232:F232"/>
     <mergeCell ref="C63:F63"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B226:F226"/>
     <mergeCell ref="C65:F65"/>
     <mergeCell ref="C66:F66"/>
     <mergeCell ref="C67:F67"/>
     <mergeCell ref="C68:F68"/>
     <mergeCell ref="B69:F69"/>
     <mergeCell ref="B71:F71"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="C234:F234"/>
     <mergeCell ref="C95:F95"/>
     <mergeCell ref="C96:F96"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="B227:F227"/>
     <mergeCell ref="C229:F229"/>
     <mergeCell ref="C230:F230"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B246:F250"/>
     <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="C254:F254"/>
+    <mergeCell ref="C255:F255"/>
+    <mergeCell ref="C256:F256"/>
+    <mergeCell ref="C257:F257"/>
+    <mergeCell ref="C258:F258"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F278"/>
+    <mergeCell ref="C259:F259"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B266:F266"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C201" r:id="rId1"/>
+    <hyperlink ref="C229" r:id="rId1"/>
     <hyperlink ref="C62" r:id="rId2"/>
     <hyperlink ref="C63" r:id="rId3"/>
-    <hyperlink ref="C200" r:id="rId4"/>
-    <hyperlink ref="C255" r:id="rId5"/>
-    <hyperlink ref="C254" r:id="rId6"/>
-    <hyperlink ref="C227" r:id="rId7"/>
-    <hyperlink ref="C226" r:id="rId8"/>
+    <hyperlink ref="C228" r:id="rId4"/>
+    <hyperlink ref="C283" r:id="rId5"/>
+    <hyperlink ref="C282" r:id="rId6"/>
+    <hyperlink ref="C255" r:id="rId7"/>
+    <hyperlink ref="C254" r:id="rId8"/>
     <hyperlink ref="C5" r:id="rId9"/>
     <hyperlink ref="C32" r:id="rId10"/>
     <hyperlink ref="C6" r:id="rId11"/>
@@ -6687,9 +7224,11 @@
     <hyperlink ref="C149" r:id="rId18"/>
     <hyperlink ref="C173" r:id="rId19"/>
     <hyperlink ref="C174" r:id="rId20"/>
+    <hyperlink ref="C199" r:id="rId21"/>
+    <hyperlink ref="C200" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId21"/>
-  <drawing r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId23"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>